--- a/分类后数据集及规范/已整理材料/卫生信息标准目录.xlsx
+++ b/分类后数据集及规范/已整理材料/卫生信息标准目录.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edwin/Documents/workfolder/workspace/healthcaredatastandard/已整理材料/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="804" yWindow="456" windowWidth="27996" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据元目录" sheetId="2" r:id="rId1"/>
-    <sheet name="数据集目录" sheetId="4" r:id="rId2"/>
-    <sheet name="数据元值域目录" sheetId="6" r:id="rId3"/>
+    <sheet name="数据元值域目录" sheetId="6" r:id="rId2"/>
+    <sheet name="数据集目录" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -24,7 +19,7 @@
     <definedName name="Artifact_type">[1]Setup!$A$22:$A$30</definedName>
     <definedName name="dispositionstatus">[1]Setup!$A$20:$K$20</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3219,11 +3214,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3360,25 +3355,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3404,7 +3399,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Setup"/>
@@ -3459,7 +3454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3494,7 +3489,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3702,26 +3697,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="4" width="46.5" customWidth="1"/>
+    <col min="3" max="4" width="46.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3756,7 +3751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -3767,7 +3762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -3784,7 +3779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -3801,7 +3796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -3818,7 +3813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3835,7 +3830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -3852,7 +3847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -3869,7 +3864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -3886,7 +3881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -3903,7 +3898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -3920,7 +3915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -3937,7 +3932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -3954,7 +3949,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -3971,7 +3966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -3988,7 +3983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -4005,7 +4000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>54</v>
       </c>
@@ -4022,7 +4017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>57</v>
       </c>
@@ -4039,25 +4034,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6">
       <c r="E19">
         <f>SUM(E3:E18)</f>
         <v>1399</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="18" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" ht="18">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" ht="18" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" ht="18">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" ht="18" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" ht="18">
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6">
       <c r="F32" s="2"/>
     </row>
   </sheetData>
@@ -4068,1336 +4063,977 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C21">
-      <formula1>$C$3:$C19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D21">
-      <formula1>"基本信息,健康体检,儿童保健,妇女保健,疾病控制,疾病管理,医疗服务,"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P282"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I260" sqref="I260"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="10"/>
-    <col min="2" max="2" width="19.1640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="10"/>
+    <col min="2" max="2" width="19.109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="13" style="10" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" style="10" customWidth="1"/>
     <col min="9" max="9" width="46" style="10" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="10" customWidth="1"/>
-    <col min="11" max="13" width="8.83203125" style="12"/>
+    <col min="11" max="13" width="8.77734375" style="12"/>
     <col min="14" max="14" width="18.6640625" style="10" customWidth="1"/>
-    <col min="15" max="254" width="8.83203125" style="10"/>
-    <col min="255" max="255" width="19.1640625" style="10" customWidth="1"/>
-    <col min="256" max="256" width="5.1640625" style="10" customWidth="1"/>
-    <col min="257" max="257" width="40.1640625" style="10" customWidth="1"/>
-    <col min="258" max="258" width="16.5" style="10" customWidth="1"/>
-    <col min="259" max="259" width="33.1640625" style="10" customWidth="1"/>
-    <col min="260" max="260" width="8.5" style="10" customWidth="1"/>
+    <col min="15" max="254" width="8.77734375" style="10"/>
+    <col min="255" max="255" width="19.109375" style="10" customWidth="1"/>
+    <col min="256" max="256" width="5.109375" style="10" customWidth="1"/>
+    <col min="257" max="257" width="40.109375" style="10" customWidth="1"/>
+    <col min="258" max="258" width="16.44140625" style="10" customWidth="1"/>
+    <col min="259" max="259" width="33.109375" style="10" customWidth="1"/>
+    <col min="260" max="260" width="8.44140625" style="10" customWidth="1"/>
     <col min="261" max="261" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="262" max="262" width="13.1640625" style="10" customWidth="1"/>
+    <col min="262" max="262" width="13.109375" style="10" customWidth="1"/>
     <col min="263" max="263" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="264" max="264" width="41.33203125" style="10" customWidth="1"/>
     <col min="265" max="265" width="46" style="10" customWidth="1"/>
     <col min="266" max="266" width="12.33203125" style="10" customWidth="1"/>
-    <col min="267" max="269" width="8.83203125" style="10"/>
+    <col min="267" max="269" width="8.77734375" style="10"/>
     <col min="270" max="270" width="18.6640625" style="10" customWidth="1"/>
-    <col min="271" max="510" width="8.83203125" style="10"/>
-    <col min="511" max="511" width="19.1640625" style="10" customWidth="1"/>
-    <col min="512" max="512" width="5.1640625" style="10" customWidth="1"/>
-    <col min="513" max="513" width="40.1640625" style="10" customWidth="1"/>
-    <col min="514" max="514" width="16.5" style="10" customWidth="1"/>
-    <col min="515" max="515" width="33.1640625" style="10" customWidth="1"/>
-    <col min="516" max="516" width="8.5" style="10" customWidth="1"/>
+    <col min="271" max="510" width="8.77734375" style="10"/>
+    <col min="511" max="511" width="19.109375" style="10" customWidth="1"/>
+    <col min="512" max="512" width="5.109375" style="10" customWidth="1"/>
+    <col min="513" max="513" width="40.109375" style="10" customWidth="1"/>
+    <col min="514" max="514" width="16.44140625" style="10" customWidth="1"/>
+    <col min="515" max="515" width="33.109375" style="10" customWidth="1"/>
+    <col min="516" max="516" width="8.44140625" style="10" customWidth="1"/>
     <col min="517" max="517" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="518" max="518" width="13.1640625" style="10" customWidth="1"/>
+    <col min="518" max="518" width="13.109375" style="10" customWidth="1"/>
     <col min="519" max="519" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="520" max="520" width="41.33203125" style="10" customWidth="1"/>
     <col min="521" max="521" width="46" style="10" customWidth="1"/>
     <col min="522" max="522" width="12.33203125" style="10" customWidth="1"/>
-    <col min="523" max="525" width="8.83203125" style="10"/>
+    <col min="523" max="525" width="8.77734375" style="10"/>
     <col min="526" max="526" width="18.6640625" style="10" customWidth="1"/>
-    <col min="527" max="766" width="8.83203125" style="10"/>
-    <col min="767" max="767" width="19.1640625" style="10" customWidth="1"/>
-    <col min="768" max="768" width="5.1640625" style="10" customWidth="1"/>
-    <col min="769" max="769" width="40.1640625" style="10" customWidth="1"/>
-    <col min="770" max="770" width="16.5" style="10" customWidth="1"/>
-    <col min="771" max="771" width="33.1640625" style="10" customWidth="1"/>
-    <col min="772" max="772" width="8.5" style="10" customWidth="1"/>
+    <col min="527" max="766" width="8.77734375" style="10"/>
+    <col min="767" max="767" width="19.109375" style="10" customWidth="1"/>
+    <col min="768" max="768" width="5.109375" style="10" customWidth="1"/>
+    <col min="769" max="769" width="40.109375" style="10" customWidth="1"/>
+    <col min="770" max="770" width="16.44140625" style="10" customWidth="1"/>
+    <col min="771" max="771" width="33.109375" style="10" customWidth="1"/>
+    <col min="772" max="772" width="8.44140625" style="10" customWidth="1"/>
     <col min="773" max="773" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="774" max="774" width="13.1640625" style="10" customWidth="1"/>
+    <col min="774" max="774" width="13.109375" style="10" customWidth="1"/>
     <col min="775" max="775" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="776" max="776" width="41.33203125" style="10" customWidth="1"/>
     <col min="777" max="777" width="46" style="10" customWidth="1"/>
     <col min="778" max="778" width="12.33203125" style="10" customWidth="1"/>
-    <col min="779" max="781" width="8.83203125" style="10"/>
+    <col min="779" max="781" width="8.77734375" style="10"/>
     <col min="782" max="782" width="18.6640625" style="10" customWidth="1"/>
-    <col min="783" max="1022" width="8.83203125" style="10"/>
-    <col min="1023" max="1023" width="19.1640625" style="10" customWidth="1"/>
-    <col min="1024" max="1024" width="5.1640625" style="10" customWidth="1"/>
-    <col min="1025" max="1025" width="40.1640625" style="10" customWidth="1"/>
-    <col min="1026" max="1026" width="16.5" style="10" customWidth="1"/>
-    <col min="1027" max="1027" width="33.1640625" style="10" customWidth="1"/>
-    <col min="1028" max="1028" width="8.5" style="10" customWidth="1"/>
+    <col min="783" max="1022" width="8.77734375" style="10"/>
+    <col min="1023" max="1023" width="19.109375" style="10" customWidth="1"/>
+    <col min="1024" max="1024" width="5.109375" style="10" customWidth="1"/>
+    <col min="1025" max="1025" width="40.109375" style="10" customWidth="1"/>
+    <col min="1026" max="1026" width="16.44140625" style="10" customWidth="1"/>
+    <col min="1027" max="1027" width="33.109375" style="10" customWidth="1"/>
+    <col min="1028" max="1028" width="8.44140625" style="10" customWidth="1"/>
     <col min="1029" max="1029" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="1030" max="1030" width="13.1640625" style="10" customWidth="1"/>
+    <col min="1030" max="1030" width="13.109375" style="10" customWidth="1"/>
     <col min="1031" max="1031" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="1032" max="1032" width="41.33203125" style="10" customWidth="1"/>
     <col min="1033" max="1033" width="46" style="10" customWidth="1"/>
     <col min="1034" max="1034" width="12.33203125" style="10" customWidth="1"/>
-    <col min="1035" max="1037" width="8.83203125" style="10"/>
+    <col min="1035" max="1037" width="8.77734375" style="10"/>
     <col min="1038" max="1038" width="18.6640625" style="10" customWidth="1"/>
-    <col min="1039" max="1278" width="8.83203125" style="10"/>
-    <col min="1279" max="1279" width="19.1640625" style="10" customWidth="1"/>
-    <col min="1280" max="1280" width="5.1640625" style="10" customWidth="1"/>
-    <col min="1281" max="1281" width="40.1640625" style="10" customWidth="1"/>
-    <col min="1282" max="1282" width="16.5" style="10" customWidth="1"/>
-    <col min="1283" max="1283" width="33.1640625" style="10" customWidth="1"/>
-    <col min="1284" max="1284" width="8.5" style="10" customWidth="1"/>
+    <col min="1039" max="1278" width="8.77734375" style="10"/>
+    <col min="1279" max="1279" width="19.109375" style="10" customWidth="1"/>
+    <col min="1280" max="1280" width="5.109375" style="10" customWidth="1"/>
+    <col min="1281" max="1281" width="40.109375" style="10" customWidth="1"/>
+    <col min="1282" max="1282" width="16.44140625" style="10" customWidth="1"/>
+    <col min="1283" max="1283" width="33.109375" style="10" customWidth="1"/>
+    <col min="1284" max="1284" width="8.44140625" style="10" customWidth="1"/>
     <col min="1285" max="1285" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="1286" max="1286" width="13.1640625" style="10" customWidth="1"/>
+    <col min="1286" max="1286" width="13.109375" style="10" customWidth="1"/>
     <col min="1287" max="1287" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="1288" max="1288" width="41.33203125" style="10" customWidth="1"/>
     <col min="1289" max="1289" width="46" style="10" customWidth="1"/>
     <col min="1290" max="1290" width="12.33203125" style="10" customWidth="1"/>
-    <col min="1291" max="1293" width="8.83203125" style="10"/>
+    <col min="1291" max="1293" width="8.77734375" style="10"/>
     <col min="1294" max="1294" width="18.6640625" style="10" customWidth="1"/>
-    <col min="1295" max="1534" width="8.83203125" style="10"/>
-    <col min="1535" max="1535" width="19.1640625" style="10" customWidth="1"/>
-    <col min="1536" max="1536" width="5.1640625" style="10" customWidth="1"/>
-    <col min="1537" max="1537" width="40.1640625" style="10" customWidth="1"/>
-    <col min="1538" max="1538" width="16.5" style="10" customWidth="1"/>
-    <col min="1539" max="1539" width="33.1640625" style="10" customWidth="1"/>
-    <col min="1540" max="1540" width="8.5" style="10" customWidth="1"/>
+    <col min="1295" max="1534" width="8.77734375" style="10"/>
+    <col min="1535" max="1535" width="19.109375" style="10" customWidth="1"/>
+    <col min="1536" max="1536" width="5.109375" style="10" customWidth="1"/>
+    <col min="1537" max="1537" width="40.109375" style="10" customWidth="1"/>
+    <col min="1538" max="1538" width="16.44140625" style="10" customWidth="1"/>
+    <col min="1539" max="1539" width="33.109375" style="10" customWidth="1"/>
+    <col min="1540" max="1540" width="8.44140625" style="10" customWidth="1"/>
     <col min="1541" max="1541" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="1542" max="1542" width="13.1640625" style="10" customWidth="1"/>
+    <col min="1542" max="1542" width="13.109375" style="10" customWidth="1"/>
     <col min="1543" max="1543" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="1544" max="1544" width="41.33203125" style="10" customWidth="1"/>
     <col min="1545" max="1545" width="46" style="10" customWidth="1"/>
     <col min="1546" max="1546" width="12.33203125" style="10" customWidth="1"/>
-    <col min="1547" max="1549" width="8.83203125" style="10"/>
+    <col min="1547" max="1549" width="8.77734375" style="10"/>
     <col min="1550" max="1550" width="18.6640625" style="10" customWidth="1"/>
-    <col min="1551" max="1790" width="8.83203125" style="10"/>
-    <col min="1791" max="1791" width="19.1640625" style="10" customWidth="1"/>
-    <col min="1792" max="1792" width="5.1640625" style="10" customWidth="1"/>
-    <col min="1793" max="1793" width="40.1640625" style="10" customWidth="1"/>
-    <col min="1794" max="1794" width="16.5" style="10" customWidth="1"/>
-    <col min="1795" max="1795" width="33.1640625" style="10" customWidth="1"/>
-    <col min="1796" max="1796" width="8.5" style="10" customWidth="1"/>
+    <col min="1551" max="1790" width="8.77734375" style="10"/>
+    <col min="1791" max="1791" width="19.109375" style="10" customWidth="1"/>
+    <col min="1792" max="1792" width="5.109375" style="10" customWidth="1"/>
+    <col min="1793" max="1793" width="40.109375" style="10" customWidth="1"/>
+    <col min="1794" max="1794" width="16.44140625" style="10" customWidth="1"/>
+    <col min="1795" max="1795" width="33.109375" style="10" customWidth="1"/>
+    <col min="1796" max="1796" width="8.44140625" style="10" customWidth="1"/>
     <col min="1797" max="1797" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="1798" max="1798" width="13.1640625" style="10" customWidth="1"/>
+    <col min="1798" max="1798" width="13.109375" style="10" customWidth="1"/>
     <col min="1799" max="1799" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="1800" max="1800" width="41.33203125" style="10" customWidth="1"/>
     <col min="1801" max="1801" width="46" style="10" customWidth="1"/>
     <col min="1802" max="1802" width="12.33203125" style="10" customWidth="1"/>
-    <col min="1803" max="1805" width="8.83203125" style="10"/>
+    <col min="1803" max="1805" width="8.77734375" style="10"/>
     <col min="1806" max="1806" width="18.6640625" style="10" customWidth="1"/>
-    <col min="1807" max="2046" width="8.83203125" style="10"/>
-    <col min="2047" max="2047" width="19.1640625" style="10" customWidth="1"/>
-    <col min="2048" max="2048" width="5.1640625" style="10" customWidth="1"/>
-    <col min="2049" max="2049" width="40.1640625" style="10" customWidth="1"/>
-    <col min="2050" max="2050" width="16.5" style="10" customWidth="1"/>
-    <col min="2051" max="2051" width="33.1640625" style="10" customWidth="1"/>
-    <col min="2052" max="2052" width="8.5" style="10" customWidth="1"/>
+    <col min="1807" max="2046" width="8.77734375" style="10"/>
+    <col min="2047" max="2047" width="19.109375" style="10" customWidth="1"/>
+    <col min="2048" max="2048" width="5.109375" style="10" customWidth="1"/>
+    <col min="2049" max="2049" width="40.109375" style="10" customWidth="1"/>
+    <col min="2050" max="2050" width="16.44140625" style="10" customWidth="1"/>
+    <col min="2051" max="2051" width="33.109375" style="10" customWidth="1"/>
+    <col min="2052" max="2052" width="8.44140625" style="10" customWidth="1"/>
     <col min="2053" max="2053" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="2054" max="2054" width="13.1640625" style="10" customWidth="1"/>
+    <col min="2054" max="2054" width="13.109375" style="10" customWidth="1"/>
     <col min="2055" max="2055" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="2056" max="2056" width="41.33203125" style="10" customWidth="1"/>
     <col min="2057" max="2057" width="46" style="10" customWidth="1"/>
     <col min="2058" max="2058" width="12.33203125" style="10" customWidth="1"/>
-    <col min="2059" max="2061" width="8.83203125" style="10"/>
+    <col min="2059" max="2061" width="8.77734375" style="10"/>
     <col min="2062" max="2062" width="18.6640625" style="10" customWidth="1"/>
-    <col min="2063" max="2302" width="8.83203125" style="10"/>
-    <col min="2303" max="2303" width="19.1640625" style="10" customWidth="1"/>
-    <col min="2304" max="2304" width="5.1640625" style="10" customWidth="1"/>
-    <col min="2305" max="2305" width="40.1640625" style="10" customWidth="1"/>
-    <col min="2306" max="2306" width="16.5" style="10" customWidth="1"/>
-    <col min="2307" max="2307" width="33.1640625" style="10" customWidth="1"/>
-    <col min="2308" max="2308" width="8.5" style="10" customWidth="1"/>
+    <col min="2063" max="2302" width="8.77734375" style="10"/>
+    <col min="2303" max="2303" width="19.109375" style="10" customWidth="1"/>
+    <col min="2304" max="2304" width="5.109375" style="10" customWidth="1"/>
+    <col min="2305" max="2305" width="40.109375" style="10" customWidth="1"/>
+    <col min="2306" max="2306" width="16.44140625" style="10" customWidth="1"/>
+    <col min="2307" max="2307" width="33.109375" style="10" customWidth="1"/>
+    <col min="2308" max="2308" width="8.44140625" style="10" customWidth="1"/>
     <col min="2309" max="2309" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="2310" max="2310" width="13.1640625" style="10" customWidth="1"/>
+    <col min="2310" max="2310" width="13.109375" style="10" customWidth="1"/>
     <col min="2311" max="2311" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="2312" max="2312" width="41.33203125" style="10" customWidth="1"/>
     <col min="2313" max="2313" width="46" style="10" customWidth="1"/>
     <col min="2314" max="2314" width="12.33203125" style="10" customWidth="1"/>
-    <col min="2315" max="2317" width="8.83203125" style="10"/>
+    <col min="2315" max="2317" width="8.77734375" style="10"/>
     <col min="2318" max="2318" width="18.6640625" style="10" customWidth="1"/>
-    <col min="2319" max="2558" width="8.83203125" style="10"/>
-    <col min="2559" max="2559" width="19.1640625" style="10" customWidth="1"/>
-    <col min="2560" max="2560" width="5.1640625" style="10" customWidth="1"/>
-    <col min="2561" max="2561" width="40.1640625" style="10" customWidth="1"/>
-    <col min="2562" max="2562" width="16.5" style="10" customWidth="1"/>
-    <col min="2563" max="2563" width="33.1640625" style="10" customWidth="1"/>
-    <col min="2564" max="2564" width="8.5" style="10" customWidth="1"/>
+    <col min="2319" max="2558" width="8.77734375" style="10"/>
+    <col min="2559" max="2559" width="19.109375" style="10" customWidth="1"/>
+    <col min="2560" max="2560" width="5.109375" style="10" customWidth="1"/>
+    <col min="2561" max="2561" width="40.109375" style="10" customWidth="1"/>
+    <col min="2562" max="2562" width="16.44140625" style="10" customWidth="1"/>
+    <col min="2563" max="2563" width="33.109375" style="10" customWidth="1"/>
+    <col min="2564" max="2564" width="8.44140625" style="10" customWidth="1"/>
     <col min="2565" max="2565" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="2566" max="2566" width="13.1640625" style="10" customWidth="1"/>
+    <col min="2566" max="2566" width="13.109375" style="10" customWidth="1"/>
     <col min="2567" max="2567" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="2568" max="2568" width="41.33203125" style="10" customWidth="1"/>
     <col min="2569" max="2569" width="46" style="10" customWidth="1"/>
     <col min="2570" max="2570" width="12.33203125" style="10" customWidth="1"/>
-    <col min="2571" max="2573" width="8.83203125" style="10"/>
+    <col min="2571" max="2573" width="8.77734375" style="10"/>
     <col min="2574" max="2574" width="18.6640625" style="10" customWidth="1"/>
-    <col min="2575" max="2814" width="8.83203125" style="10"/>
-    <col min="2815" max="2815" width="19.1640625" style="10" customWidth="1"/>
-    <col min="2816" max="2816" width="5.1640625" style="10" customWidth="1"/>
-    <col min="2817" max="2817" width="40.1640625" style="10" customWidth="1"/>
-    <col min="2818" max="2818" width="16.5" style="10" customWidth="1"/>
-    <col min="2819" max="2819" width="33.1640625" style="10" customWidth="1"/>
-    <col min="2820" max="2820" width="8.5" style="10" customWidth="1"/>
+    <col min="2575" max="2814" width="8.77734375" style="10"/>
+    <col min="2815" max="2815" width="19.109375" style="10" customWidth="1"/>
+    <col min="2816" max="2816" width="5.109375" style="10" customWidth="1"/>
+    <col min="2817" max="2817" width="40.109375" style="10" customWidth="1"/>
+    <col min="2818" max="2818" width="16.44140625" style="10" customWidth="1"/>
+    <col min="2819" max="2819" width="33.109375" style="10" customWidth="1"/>
+    <col min="2820" max="2820" width="8.44140625" style="10" customWidth="1"/>
     <col min="2821" max="2821" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="2822" max="2822" width="13.1640625" style="10" customWidth="1"/>
+    <col min="2822" max="2822" width="13.109375" style="10" customWidth="1"/>
     <col min="2823" max="2823" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="2824" max="2824" width="41.33203125" style="10" customWidth="1"/>
     <col min="2825" max="2825" width="46" style="10" customWidth="1"/>
     <col min="2826" max="2826" width="12.33203125" style="10" customWidth="1"/>
-    <col min="2827" max="2829" width="8.83203125" style="10"/>
+    <col min="2827" max="2829" width="8.77734375" style="10"/>
     <col min="2830" max="2830" width="18.6640625" style="10" customWidth="1"/>
-    <col min="2831" max="3070" width="8.83203125" style="10"/>
-    <col min="3071" max="3071" width="19.1640625" style="10" customWidth="1"/>
-    <col min="3072" max="3072" width="5.1640625" style="10" customWidth="1"/>
-    <col min="3073" max="3073" width="40.1640625" style="10" customWidth="1"/>
-    <col min="3074" max="3074" width="16.5" style="10" customWidth="1"/>
-    <col min="3075" max="3075" width="33.1640625" style="10" customWidth="1"/>
-    <col min="3076" max="3076" width="8.5" style="10" customWidth="1"/>
+    <col min="2831" max="3070" width="8.77734375" style="10"/>
+    <col min="3071" max="3071" width="19.109375" style="10" customWidth="1"/>
+    <col min="3072" max="3072" width="5.109375" style="10" customWidth="1"/>
+    <col min="3073" max="3073" width="40.109375" style="10" customWidth="1"/>
+    <col min="3074" max="3074" width="16.44140625" style="10" customWidth="1"/>
+    <col min="3075" max="3075" width="33.109375" style="10" customWidth="1"/>
+    <col min="3076" max="3076" width="8.44140625" style="10" customWidth="1"/>
     <col min="3077" max="3077" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="3078" max="3078" width="13.1640625" style="10" customWidth="1"/>
+    <col min="3078" max="3078" width="13.109375" style="10" customWidth="1"/>
     <col min="3079" max="3079" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="3080" max="3080" width="41.33203125" style="10" customWidth="1"/>
     <col min="3081" max="3081" width="46" style="10" customWidth="1"/>
     <col min="3082" max="3082" width="12.33203125" style="10" customWidth="1"/>
-    <col min="3083" max="3085" width="8.83203125" style="10"/>
+    <col min="3083" max="3085" width="8.77734375" style="10"/>
     <col min="3086" max="3086" width="18.6640625" style="10" customWidth="1"/>
-    <col min="3087" max="3326" width="8.83203125" style="10"/>
-    <col min="3327" max="3327" width="19.1640625" style="10" customWidth="1"/>
-    <col min="3328" max="3328" width="5.1640625" style="10" customWidth="1"/>
-    <col min="3329" max="3329" width="40.1640625" style="10" customWidth="1"/>
-    <col min="3330" max="3330" width="16.5" style="10" customWidth="1"/>
-    <col min="3331" max="3331" width="33.1640625" style="10" customWidth="1"/>
-    <col min="3332" max="3332" width="8.5" style="10" customWidth="1"/>
+    <col min="3087" max="3326" width="8.77734375" style="10"/>
+    <col min="3327" max="3327" width="19.109375" style="10" customWidth="1"/>
+    <col min="3328" max="3328" width="5.109375" style="10" customWidth="1"/>
+    <col min="3329" max="3329" width="40.109375" style="10" customWidth="1"/>
+    <col min="3330" max="3330" width="16.44140625" style="10" customWidth="1"/>
+    <col min="3331" max="3331" width="33.109375" style="10" customWidth="1"/>
+    <col min="3332" max="3332" width="8.44140625" style="10" customWidth="1"/>
     <col min="3333" max="3333" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="3334" max="3334" width="13.1640625" style="10" customWidth="1"/>
+    <col min="3334" max="3334" width="13.109375" style="10" customWidth="1"/>
     <col min="3335" max="3335" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="3336" max="3336" width="41.33203125" style="10" customWidth="1"/>
     <col min="3337" max="3337" width="46" style="10" customWidth="1"/>
     <col min="3338" max="3338" width="12.33203125" style="10" customWidth="1"/>
-    <col min="3339" max="3341" width="8.83203125" style="10"/>
+    <col min="3339" max="3341" width="8.77734375" style="10"/>
     <col min="3342" max="3342" width="18.6640625" style="10" customWidth="1"/>
-    <col min="3343" max="3582" width="8.83203125" style="10"/>
-    <col min="3583" max="3583" width="19.1640625" style="10" customWidth="1"/>
-    <col min="3584" max="3584" width="5.1640625" style="10" customWidth="1"/>
-    <col min="3585" max="3585" width="40.1640625" style="10" customWidth="1"/>
-    <col min="3586" max="3586" width="16.5" style="10" customWidth="1"/>
-    <col min="3587" max="3587" width="33.1640625" style="10" customWidth="1"/>
-    <col min="3588" max="3588" width="8.5" style="10" customWidth="1"/>
+    <col min="3343" max="3582" width="8.77734375" style="10"/>
+    <col min="3583" max="3583" width="19.109375" style="10" customWidth="1"/>
+    <col min="3584" max="3584" width="5.109375" style="10" customWidth="1"/>
+    <col min="3585" max="3585" width="40.109375" style="10" customWidth="1"/>
+    <col min="3586" max="3586" width="16.44140625" style="10" customWidth="1"/>
+    <col min="3587" max="3587" width="33.109375" style="10" customWidth="1"/>
+    <col min="3588" max="3588" width="8.44140625" style="10" customWidth="1"/>
     <col min="3589" max="3589" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="3590" max="3590" width="13.1640625" style="10" customWidth="1"/>
+    <col min="3590" max="3590" width="13.109375" style="10" customWidth="1"/>
     <col min="3591" max="3591" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="3592" max="3592" width="41.33203125" style="10" customWidth="1"/>
     <col min="3593" max="3593" width="46" style="10" customWidth="1"/>
     <col min="3594" max="3594" width="12.33203125" style="10" customWidth="1"/>
-    <col min="3595" max="3597" width="8.83203125" style="10"/>
+    <col min="3595" max="3597" width="8.77734375" style="10"/>
     <col min="3598" max="3598" width="18.6640625" style="10" customWidth="1"/>
-    <col min="3599" max="3838" width="8.83203125" style="10"/>
-    <col min="3839" max="3839" width="19.1640625" style="10" customWidth="1"/>
-    <col min="3840" max="3840" width="5.1640625" style="10" customWidth="1"/>
-    <col min="3841" max="3841" width="40.1640625" style="10" customWidth="1"/>
-    <col min="3842" max="3842" width="16.5" style="10" customWidth="1"/>
-    <col min="3843" max="3843" width="33.1640625" style="10" customWidth="1"/>
-    <col min="3844" max="3844" width="8.5" style="10" customWidth="1"/>
+    <col min="3599" max="3838" width="8.77734375" style="10"/>
+    <col min="3839" max="3839" width="19.109375" style="10" customWidth="1"/>
+    <col min="3840" max="3840" width="5.109375" style="10" customWidth="1"/>
+    <col min="3841" max="3841" width="40.109375" style="10" customWidth="1"/>
+    <col min="3842" max="3842" width="16.44140625" style="10" customWidth="1"/>
+    <col min="3843" max="3843" width="33.109375" style="10" customWidth="1"/>
+    <col min="3844" max="3844" width="8.44140625" style="10" customWidth="1"/>
     <col min="3845" max="3845" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="3846" max="3846" width="13.1640625" style="10" customWidth="1"/>
+    <col min="3846" max="3846" width="13.109375" style="10" customWidth="1"/>
     <col min="3847" max="3847" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="3848" max="3848" width="41.33203125" style="10" customWidth="1"/>
     <col min="3849" max="3849" width="46" style="10" customWidth="1"/>
     <col min="3850" max="3850" width="12.33203125" style="10" customWidth="1"/>
-    <col min="3851" max="3853" width="8.83203125" style="10"/>
+    <col min="3851" max="3853" width="8.77734375" style="10"/>
     <col min="3854" max="3854" width="18.6640625" style="10" customWidth="1"/>
-    <col min="3855" max="4094" width="8.83203125" style="10"/>
-    <col min="4095" max="4095" width="19.1640625" style="10" customWidth="1"/>
-    <col min="4096" max="4096" width="5.1640625" style="10" customWidth="1"/>
-    <col min="4097" max="4097" width="40.1640625" style="10" customWidth="1"/>
-    <col min="4098" max="4098" width="16.5" style="10" customWidth="1"/>
-    <col min="4099" max="4099" width="33.1640625" style="10" customWidth="1"/>
-    <col min="4100" max="4100" width="8.5" style="10" customWidth="1"/>
+    <col min="3855" max="4094" width="8.77734375" style="10"/>
+    <col min="4095" max="4095" width="19.109375" style="10" customWidth="1"/>
+    <col min="4096" max="4096" width="5.109375" style="10" customWidth="1"/>
+    <col min="4097" max="4097" width="40.109375" style="10" customWidth="1"/>
+    <col min="4098" max="4098" width="16.44140625" style="10" customWidth="1"/>
+    <col min="4099" max="4099" width="33.109375" style="10" customWidth="1"/>
+    <col min="4100" max="4100" width="8.44140625" style="10" customWidth="1"/>
     <col min="4101" max="4101" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="4102" max="4102" width="13.1640625" style="10" customWidth="1"/>
+    <col min="4102" max="4102" width="13.109375" style="10" customWidth="1"/>
     <col min="4103" max="4103" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="4104" max="4104" width="41.33203125" style="10" customWidth="1"/>
     <col min="4105" max="4105" width="46" style="10" customWidth="1"/>
     <col min="4106" max="4106" width="12.33203125" style="10" customWidth="1"/>
-    <col min="4107" max="4109" width="8.83203125" style="10"/>
+    <col min="4107" max="4109" width="8.77734375" style="10"/>
     <col min="4110" max="4110" width="18.6640625" style="10" customWidth="1"/>
-    <col min="4111" max="4350" width="8.83203125" style="10"/>
-    <col min="4351" max="4351" width="19.1640625" style="10" customWidth="1"/>
-    <col min="4352" max="4352" width="5.1640625" style="10" customWidth="1"/>
-    <col min="4353" max="4353" width="40.1640625" style="10" customWidth="1"/>
-    <col min="4354" max="4354" width="16.5" style="10" customWidth="1"/>
-    <col min="4355" max="4355" width="33.1640625" style="10" customWidth="1"/>
-    <col min="4356" max="4356" width="8.5" style="10" customWidth="1"/>
+    <col min="4111" max="4350" width="8.77734375" style="10"/>
+    <col min="4351" max="4351" width="19.109375" style="10" customWidth="1"/>
+    <col min="4352" max="4352" width="5.109375" style="10" customWidth="1"/>
+    <col min="4353" max="4353" width="40.109375" style="10" customWidth="1"/>
+    <col min="4354" max="4354" width="16.44140625" style="10" customWidth="1"/>
+    <col min="4355" max="4355" width="33.109375" style="10" customWidth="1"/>
+    <col min="4356" max="4356" width="8.44140625" style="10" customWidth="1"/>
     <col min="4357" max="4357" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="4358" max="4358" width="13.1640625" style="10" customWidth="1"/>
+    <col min="4358" max="4358" width="13.109375" style="10" customWidth="1"/>
     <col min="4359" max="4359" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="4360" max="4360" width="41.33203125" style="10" customWidth="1"/>
     <col min="4361" max="4361" width="46" style="10" customWidth="1"/>
     <col min="4362" max="4362" width="12.33203125" style="10" customWidth="1"/>
-    <col min="4363" max="4365" width="8.83203125" style="10"/>
+    <col min="4363" max="4365" width="8.77734375" style="10"/>
     <col min="4366" max="4366" width="18.6640625" style="10" customWidth="1"/>
-    <col min="4367" max="4606" width="8.83203125" style="10"/>
-    <col min="4607" max="4607" width="19.1640625" style="10" customWidth="1"/>
-    <col min="4608" max="4608" width="5.1640625" style="10" customWidth="1"/>
-    <col min="4609" max="4609" width="40.1640625" style="10" customWidth="1"/>
-    <col min="4610" max="4610" width="16.5" style="10" customWidth="1"/>
-    <col min="4611" max="4611" width="33.1640625" style="10" customWidth="1"/>
-    <col min="4612" max="4612" width="8.5" style="10" customWidth="1"/>
+    <col min="4367" max="4606" width="8.77734375" style="10"/>
+    <col min="4607" max="4607" width="19.109375" style="10" customWidth="1"/>
+    <col min="4608" max="4608" width="5.109375" style="10" customWidth="1"/>
+    <col min="4609" max="4609" width="40.109375" style="10" customWidth="1"/>
+    <col min="4610" max="4610" width="16.44140625" style="10" customWidth="1"/>
+    <col min="4611" max="4611" width="33.109375" style="10" customWidth="1"/>
+    <col min="4612" max="4612" width="8.44140625" style="10" customWidth="1"/>
     <col min="4613" max="4613" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="4614" max="4614" width="13.1640625" style="10" customWidth="1"/>
+    <col min="4614" max="4614" width="13.109375" style="10" customWidth="1"/>
     <col min="4615" max="4615" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="4616" max="4616" width="41.33203125" style="10" customWidth="1"/>
     <col min="4617" max="4617" width="46" style="10" customWidth="1"/>
     <col min="4618" max="4618" width="12.33203125" style="10" customWidth="1"/>
-    <col min="4619" max="4621" width="8.83203125" style="10"/>
+    <col min="4619" max="4621" width="8.77734375" style="10"/>
     <col min="4622" max="4622" width="18.6640625" style="10" customWidth="1"/>
-    <col min="4623" max="4862" width="8.83203125" style="10"/>
-    <col min="4863" max="4863" width="19.1640625" style="10" customWidth="1"/>
-    <col min="4864" max="4864" width="5.1640625" style="10" customWidth="1"/>
-    <col min="4865" max="4865" width="40.1640625" style="10" customWidth="1"/>
-    <col min="4866" max="4866" width="16.5" style="10" customWidth="1"/>
-    <col min="4867" max="4867" width="33.1640625" style="10" customWidth="1"/>
-    <col min="4868" max="4868" width="8.5" style="10" customWidth="1"/>
+    <col min="4623" max="4862" width="8.77734375" style="10"/>
+    <col min="4863" max="4863" width="19.109375" style="10" customWidth="1"/>
+    <col min="4864" max="4864" width="5.109375" style="10" customWidth="1"/>
+    <col min="4865" max="4865" width="40.109375" style="10" customWidth="1"/>
+    <col min="4866" max="4866" width="16.44140625" style="10" customWidth="1"/>
+    <col min="4867" max="4867" width="33.109375" style="10" customWidth="1"/>
+    <col min="4868" max="4868" width="8.44140625" style="10" customWidth="1"/>
     <col min="4869" max="4869" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="4870" max="4870" width="13.1640625" style="10" customWidth="1"/>
+    <col min="4870" max="4870" width="13.109375" style="10" customWidth="1"/>
     <col min="4871" max="4871" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="4872" max="4872" width="41.33203125" style="10" customWidth="1"/>
     <col min="4873" max="4873" width="46" style="10" customWidth="1"/>
     <col min="4874" max="4874" width="12.33203125" style="10" customWidth="1"/>
-    <col min="4875" max="4877" width="8.83203125" style="10"/>
+    <col min="4875" max="4877" width="8.77734375" style="10"/>
     <col min="4878" max="4878" width="18.6640625" style="10" customWidth="1"/>
-    <col min="4879" max="5118" width="8.83203125" style="10"/>
-    <col min="5119" max="5119" width="19.1640625" style="10" customWidth="1"/>
-    <col min="5120" max="5120" width="5.1640625" style="10" customWidth="1"/>
-    <col min="5121" max="5121" width="40.1640625" style="10" customWidth="1"/>
-    <col min="5122" max="5122" width="16.5" style="10" customWidth="1"/>
-    <col min="5123" max="5123" width="33.1640625" style="10" customWidth="1"/>
-    <col min="5124" max="5124" width="8.5" style="10" customWidth="1"/>
+    <col min="4879" max="5118" width="8.77734375" style="10"/>
+    <col min="5119" max="5119" width="19.109375" style="10" customWidth="1"/>
+    <col min="5120" max="5120" width="5.109375" style="10" customWidth="1"/>
+    <col min="5121" max="5121" width="40.109375" style="10" customWidth="1"/>
+    <col min="5122" max="5122" width="16.44140625" style="10" customWidth="1"/>
+    <col min="5123" max="5123" width="33.109375" style="10" customWidth="1"/>
+    <col min="5124" max="5124" width="8.44140625" style="10" customWidth="1"/>
     <col min="5125" max="5125" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="5126" max="5126" width="13.1640625" style="10" customWidth="1"/>
+    <col min="5126" max="5126" width="13.109375" style="10" customWidth="1"/>
     <col min="5127" max="5127" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="5128" max="5128" width="41.33203125" style="10" customWidth="1"/>
     <col min="5129" max="5129" width="46" style="10" customWidth="1"/>
     <col min="5130" max="5130" width="12.33203125" style="10" customWidth="1"/>
-    <col min="5131" max="5133" width="8.83203125" style="10"/>
+    <col min="5131" max="5133" width="8.77734375" style="10"/>
     <col min="5134" max="5134" width="18.6640625" style="10" customWidth="1"/>
-    <col min="5135" max="5374" width="8.83203125" style="10"/>
-    <col min="5375" max="5375" width="19.1640625" style="10" customWidth="1"/>
-    <col min="5376" max="5376" width="5.1640625" style="10" customWidth="1"/>
-    <col min="5377" max="5377" width="40.1640625" style="10" customWidth="1"/>
-    <col min="5378" max="5378" width="16.5" style="10" customWidth="1"/>
-    <col min="5379" max="5379" width="33.1640625" style="10" customWidth="1"/>
-    <col min="5380" max="5380" width="8.5" style="10" customWidth="1"/>
+    <col min="5135" max="5374" width="8.77734375" style="10"/>
+    <col min="5375" max="5375" width="19.109375" style="10" customWidth="1"/>
+    <col min="5376" max="5376" width="5.109375" style="10" customWidth="1"/>
+    <col min="5377" max="5377" width="40.109375" style="10" customWidth="1"/>
+    <col min="5378" max="5378" width="16.44140625" style="10" customWidth="1"/>
+    <col min="5379" max="5379" width="33.109375" style="10" customWidth="1"/>
+    <col min="5380" max="5380" width="8.44140625" style="10" customWidth="1"/>
     <col min="5381" max="5381" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="5382" max="5382" width="13.1640625" style="10" customWidth="1"/>
+    <col min="5382" max="5382" width="13.109375" style="10" customWidth="1"/>
     <col min="5383" max="5383" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="5384" max="5384" width="41.33203125" style="10" customWidth="1"/>
     <col min="5385" max="5385" width="46" style="10" customWidth="1"/>
     <col min="5386" max="5386" width="12.33203125" style="10" customWidth="1"/>
-    <col min="5387" max="5389" width="8.83203125" style="10"/>
+    <col min="5387" max="5389" width="8.77734375" style="10"/>
     <col min="5390" max="5390" width="18.6640625" style="10" customWidth="1"/>
-    <col min="5391" max="5630" width="8.83203125" style="10"/>
-    <col min="5631" max="5631" width="19.1640625" style="10" customWidth="1"/>
-    <col min="5632" max="5632" width="5.1640625" style="10" customWidth="1"/>
-    <col min="5633" max="5633" width="40.1640625" style="10" customWidth="1"/>
-    <col min="5634" max="5634" width="16.5" style="10" customWidth="1"/>
-    <col min="5635" max="5635" width="33.1640625" style="10" customWidth="1"/>
-    <col min="5636" max="5636" width="8.5" style="10" customWidth="1"/>
+    <col min="5391" max="5630" width="8.77734375" style="10"/>
+    <col min="5631" max="5631" width="19.109375" style="10" customWidth="1"/>
+    <col min="5632" max="5632" width="5.109375" style="10" customWidth="1"/>
+    <col min="5633" max="5633" width="40.109375" style="10" customWidth="1"/>
+    <col min="5634" max="5634" width="16.44140625" style="10" customWidth="1"/>
+    <col min="5635" max="5635" width="33.109375" style="10" customWidth="1"/>
+    <col min="5636" max="5636" width="8.44140625" style="10" customWidth="1"/>
     <col min="5637" max="5637" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="5638" max="5638" width="13.1640625" style="10" customWidth="1"/>
+    <col min="5638" max="5638" width="13.109375" style="10" customWidth="1"/>
     <col min="5639" max="5639" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="5640" max="5640" width="41.33203125" style="10" customWidth="1"/>
     <col min="5641" max="5641" width="46" style="10" customWidth="1"/>
     <col min="5642" max="5642" width="12.33203125" style="10" customWidth="1"/>
-    <col min="5643" max="5645" width="8.83203125" style="10"/>
+    <col min="5643" max="5645" width="8.77734375" style="10"/>
     <col min="5646" max="5646" width="18.6640625" style="10" customWidth="1"/>
-    <col min="5647" max="5886" width="8.83203125" style="10"/>
-    <col min="5887" max="5887" width="19.1640625" style="10" customWidth="1"/>
-    <col min="5888" max="5888" width="5.1640625" style="10" customWidth="1"/>
-    <col min="5889" max="5889" width="40.1640625" style="10" customWidth="1"/>
-    <col min="5890" max="5890" width="16.5" style="10" customWidth="1"/>
-    <col min="5891" max="5891" width="33.1640625" style="10" customWidth="1"/>
-    <col min="5892" max="5892" width="8.5" style="10" customWidth="1"/>
+    <col min="5647" max="5886" width="8.77734375" style="10"/>
+    <col min="5887" max="5887" width="19.109375" style="10" customWidth="1"/>
+    <col min="5888" max="5888" width="5.109375" style="10" customWidth="1"/>
+    <col min="5889" max="5889" width="40.109375" style="10" customWidth="1"/>
+    <col min="5890" max="5890" width="16.44140625" style="10" customWidth="1"/>
+    <col min="5891" max="5891" width="33.109375" style="10" customWidth="1"/>
+    <col min="5892" max="5892" width="8.44140625" style="10" customWidth="1"/>
     <col min="5893" max="5893" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="5894" max="5894" width="13.1640625" style="10" customWidth="1"/>
+    <col min="5894" max="5894" width="13.109375" style="10" customWidth="1"/>
     <col min="5895" max="5895" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="5896" max="5896" width="41.33203125" style="10" customWidth="1"/>
     <col min="5897" max="5897" width="46" style="10" customWidth="1"/>
     <col min="5898" max="5898" width="12.33203125" style="10" customWidth="1"/>
-    <col min="5899" max="5901" width="8.83203125" style="10"/>
+    <col min="5899" max="5901" width="8.77734375" style="10"/>
     <col min="5902" max="5902" width="18.6640625" style="10" customWidth="1"/>
-    <col min="5903" max="6142" width="8.83203125" style="10"/>
-    <col min="6143" max="6143" width="19.1640625" style="10" customWidth="1"/>
-    <col min="6144" max="6144" width="5.1640625" style="10" customWidth="1"/>
-    <col min="6145" max="6145" width="40.1640625" style="10" customWidth="1"/>
-    <col min="6146" max="6146" width="16.5" style="10" customWidth="1"/>
-    <col min="6147" max="6147" width="33.1640625" style="10" customWidth="1"/>
-    <col min="6148" max="6148" width="8.5" style="10" customWidth="1"/>
+    <col min="5903" max="6142" width="8.77734375" style="10"/>
+    <col min="6143" max="6143" width="19.109375" style="10" customWidth="1"/>
+    <col min="6144" max="6144" width="5.109375" style="10" customWidth="1"/>
+    <col min="6145" max="6145" width="40.109375" style="10" customWidth="1"/>
+    <col min="6146" max="6146" width="16.44140625" style="10" customWidth="1"/>
+    <col min="6147" max="6147" width="33.109375" style="10" customWidth="1"/>
+    <col min="6148" max="6148" width="8.44140625" style="10" customWidth="1"/>
     <col min="6149" max="6149" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="6150" max="6150" width="13.1640625" style="10" customWidth="1"/>
+    <col min="6150" max="6150" width="13.109375" style="10" customWidth="1"/>
     <col min="6151" max="6151" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="6152" max="6152" width="41.33203125" style="10" customWidth="1"/>
     <col min="6153" max="6153" width="46" style="10" customWidth="1"/>
     <col min="6154" max="6154" width="12.33203125" style="10" customWidth="1"/>
-    <col min="6155" max="6157" width="8.83203125" style="10"/>
+    <col min="6155" max="6157" width="8.77734375" style="10"/>
     <col min="6158" max="6158" width="18.6640625" style="10" customWidth="1"/>
-    <col min="6159" max="6398" width="8.83203125" style="10"/>
-    <col min="6399" max="6399" width="19.1640625" style="10" customWidth="1"/>
-    <col min="6400" max="6400" width="5.1640625" style="10" customWidth="1"/>
-    <col min="6401" max="6401" width="40.1640625" style="10" customWidth="1"/>
-    <col min="6402" max="6402" width="16.5" style="10" customWidth="1"/>
-    <col min="6403" max="6403" width="33.1640625" style="10" customWidth="1"/>
-    <col min="6404" max="6404" width="8.5" style="10" customWidth="1"/>
+    <col min="6159" max="6398" width="8.77734375" style="10"/>
+    <col min="6399" max="6399" width="19.109375" style="10" customWidth="1"/>
+    <col min="6400" max="6400" width="5.109375" style="10" customWidth="1"/>
+    <col min="6401" max="6401" width="40.109375" style="10" customWidth="1"/>
+    <col min="6402" max="6402" width="16.44140625" style="10" customWidth="1"/>
+    <col min="6403" max="6403" width="33.109375" style="10" customWidth="1"/>
+    <col min="6404" max="6404" width="8.44140625" style="10" customWidth="1"/>
     <col min="6405" max="6405" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="6406" max="6406" width="13.1640625" style="10" customWidth="1"/>
+    <col min="6406" max="6406" width="13.109375" style="10" customWidth="1"/>
     <col min="6407" max="6407" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="6408" max="6408" width="41.33203125" style="10" customWidth="1"/>
     <col min="6409" max="6409" width="46" style="10" customWidth="1"/>
     <col min="6410" max="6410" width="12.33203125" style="10" customWidth="1"/>
-    <col min="6411" max="6413" width="8.83203125" style="10"/>
+    <col min="6411" max="6413" width="8.77734375" style="10"/>
     <col min="6414" max="6414" width="18.6640625" style="10" customWidth="1"/>
-    <col min="6415" max="6654" width="8.83203125" style="10"/>
-    <col min="6655" max="6655" width="19.1640625" style="10" customWidth="1"/>
-    <col min="6656" max="6656" width="5.1640625" style="10" customWidth="1"/>
-    <col min="6657" max="6657" width="40.1640625" style="10" customWidth="1"/>
-    <col min="6658" max="6658" width="16.5" style="10" customWidth="1"/>
-    <col min="6659" max="6659" width="33.1640625" style="10" customWidth="1"/>
-    <col min="6660" max="6660" width="8.5" style="10" customWidth="1"/>
+    <col min="6415" max="6654" width="8.77734375" style="10"/>
+    <col min="6655" max="6655" width="19.109375" style="10" customWidth="1"/>
+    <col min="6656" max="6656" width="5.109375" style="10" customWidth="1"/>
+    <col min="6657" max="6657" width="40.109375" style="10" customWidth="1"/>
+    <col min="6658" max="6658" width="16.44140625" style="10" customWidth="1"/>
+    <col min="6659" max="6659" width="33.109375" style="10" customWidth="1"/>
+    <col min="6660" max="6660" width="8.44140625" style="10" customWidth="1"/>
     <col min="6661" max="6661" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="6662" max="6662" width="13.1640625" style="10" customWidth="1"/>
+    <col min="6662" max="6662" width="13.109375" style="10" customWidth="1"/>
     <col min="6663" max="6663" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="6664" max="6664" width="41.33203125" style="10" customWidth="1"/>
     <col min="6665" max="6665" width="46" style="10" customWidth="1"/>
     <col min="6666" max="6666" width="12.33203125" style="10" customWidth="1"/>
-    <col min="6667" max="6669" width="8.83203125" style="10"/>
+    <col min="6667" max="6669" width="8.77734375" style="10"/>
     <col min="6670" max="6670" width="18.6640625" style="10" customWidth="1"/>
-    <col min="6671" max="6910" width="8.83203125" style="10"/>
-    <col min="6911" max="6911" width="19.1640625" style="10" customWidth="1"/>
-    <col min="6912" max="6912" width="5.1640625" style="10" customWidth="1"/>
-    <col min="6913" max="6913" width="40.1640625" style="10" customWidth="1"/>
-    <col min="6914" max="6914" width="16.5" style="10" customWidth="1"/>
-    <col min="6915" max="6915" width="33.1640625" style="10" customWidth="1"/>
-    <col min="6916" max="6916" width="8.5" style="10" customWidth="1"/>
+    <col min="6671" max="6910" width="8.77734375" style="10"/>
+    <col min="6911" max="6911" width="19.109375" style="10" customWidth="1"/>
+    <col min="6912" max="6912" width="5.109375" style="10" customWidth="1"/>
+    <col min="6913" max="6913" width="40.109375" style="10" customWidth="1"/>
+    <col min="6914" max="6914" width="16.44140625" style="10" customWidth="1"/>
+    <col min="6915" max="6915" width="33.109375" style="10" customWidth="1"/>
+    <col min="6916" max="6916" width="8.44140625" style="10" customWidth="1"/>
     <col min="6917" max="6917" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="6918" max="6918" width="13.1640625" style="10" customWidth="1"/>
+    <col min="6918" max="6918" width="13.109375" style="10" customWidth="1"/>
     <col min="6919" max="6919" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="6920" max="6920" width="41.33203125" style="10" customWidth="1"/>
     <col min="6921" max="6921" width="46" style="10" customWidth="1"/>
     <col min="6922" max="6922" width="12.33203125" style="10" customWidth="1"/>
-    <col min="6923" max="6925" width="8.83203125" style="10"/>
+    <col min="6923" max="6925" width="8.77734375" style="10"/>
     <col min="6926" max="6926" width="18.6640625" style="10" customWidth="1"/>
-    <col min="6927" max="7166" width="8.83203125" style="10"/>
-    <col min="7167" max="7167" width="19.1640625" style="10" customWidth="1"/>
-    <col min="7168" max="7168" width="5.1640625" style="10" customWidth="1"/>
-    <col min="7169" max="7169" width="40.1640625" style="10" customWidth="1"/>
-    <col min="7170" max="7170" width="16.5" style="10" customWidth="1"/>
-    <col min="7171" max="7171" width="33.1640625" style="10" customWidth="1"/>
-    <col min="7172" max="7172" width="8.5" style="10" customWidth="1"/>
+    <col min="6927" max="7166" width="8.77734375" style="10"/>
+    <col min="7167" max="7167" width="19.109375" style="10" customWidth="1"/>
+    <col min="7168" max="7168" width="5.109375" style="10" customWidth="1"/>
+    <col min="7169" max="7169" width="40.109375" style="10" customWidth="1"/>
+    <col min="7170" max="7170" width="16.44140625" style="10" customWidth="1"/>
+    <col min="7171" max="7171" width="33.109375" style="10" customWidth="1"/>
+    <col min="7172" max="7172" width="8.44140625" style="10" customWidth="1"/>
     <col min="7173" max="7173" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="7174" max="7174" width="13.1640625" style="10" customWidth="1"/>
+    <col min="7174" max="7174" width="13.109375" style="10" customWidth="1"/>
     <col min="7175" max="7175" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="7176" max="7176" width="41.33203125" style="10" customWidth="1"/>
     <col min="7177" max="7177" width="46" style="10" customWidth="1"/>
     <col min="7178" max="7178" width="12.33203125" style="10" customWidth="1"/>
-    <col min="7179" max="7181" width="8.83203125" style="10"/>
+    <col min="7179" max="7181" width="8.77734375" style="10"/>
     <col min="7182" max="7182" width="18.6640625" style="10" customWidth="1"/>
-    <col min="7183" max="7422" width="8.83203125" style="10"/>
-    <col min="7423" max="7423" width="19.1640625" style="10" customWidth="1"/>
-    <col min="7424" max="7424" width="5.1640625" style="10" customWidth="1"/>
-    <col min="7425" max="7425" width="40.1640625" style="10" customWidth="1"/>
-    <col min="7426" max="7426" width="16.5" style="10" customWidth="1"/>
-    <col min="7427" max="7427" width="33.1640625" style="10" customWidth="1"/>
-    <col min="7428" max="7428" width="8.5" style="10" customWidth="1"/>
+    <col min="7183" max="7422" width="8.77734375" style="10"/>
+    <col min="7423" max="7423" width="19.109375" style="10" customWidth="1"/>
+    <col min="7424" max="7424" width="5.109375" style="10" customWidth="1"/>
+    <col min="7425" max="7425" width="40.109375" style="10" customWidth="1"/>
+    <col min="7426" max="7426" width="16.44140625" style="10" customWidth="1"/>
+    <col min="7427" max="7427" width="33.109375" style="10" customWidth="1"/>
+    <col min="7428" max="7428" width="8.44140625" style="10" customWidth="1"/>
     <col min="7429" max="7429" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="7430" max="7430" width="13.1640625" style="10" customWidth="1"/>
+    <col min="7430" max="7430" width="13.109375" style="10" customWidth="1"/>
     <col min="7431" max="7431" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="7432" max="7432" width="41.33203125" style="10" customWidth="1"/>
     <col min="7433" max="7433" width="46" style="10" customWidth="1"/>
     <col min="7434" max="7434" width="12.33203125" style="10" customWidth="1"/>
-    <col min="7435" max="7437" width="8.83203125" style="10"/>
+    <col min="7435" max="7437" width="8.77734375" style="10"/>
     <col min="7438" max="7438" width="18.6640625" style="10" customWidth="1"/>
-    <col min="7439" max="7678" width="8.83203125" style="10"/>
-    <col min="7679" max="7679" width="19.1640625" style="10" customWidth="1"/>
-    <col min="7680" max="7680" width="5.1640625" style="10" customWidth="1"/>
-    <col min="7681" max="7681" width="40.1640625" style="10" customWidth="1"/>
-    <col min="7682" max="7682" width="16.5" style="10" customWidth="1"/>
-    <col min="7683" max="7683" width="33.1640625" style="10" customWidth="1"/>
-    <col min="7684" max="7684" width="8.5" style="10" customWidth="1"/>
+    <col min="7439" max="7678" width="8.77734375" style="10"/>
+    <col min="7679" max="7679" width="19.109375" style="10" customWidth="1"/>
+    <col min="7680" max="7680" width="5.109375" style="10" customWidth="1"/>
+    <col min="7681" max="7681" width="40.109375" style="10" customWidth="1"/>
+    <col min="7682" max="7682" width="16.44140625" style="10" customWidth="1"/>
+    <col min="7683" max="7683" width="33.109375" style="10" customWidth="1"/>
+    <col min="7684" max="7684" width="8.44140625" style="10" customWidth="1"/>
     <col min="7685" max="7685" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="7686" max="7686" width="13.1640625" style="10" customWidth="1"/>
+    <col min="7686" max="7686" width="13.109375" style="10" customWidth="1"/>
     <col min="7687" max="7687" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="7688" max="7688" width="41.33203125" style="10" customWidth="1"/>
     <col min="7689" max="7689" width="46" style="10" customWidth="1"/>
     <col min="7690" max="7690" width="12.33203125" style="10" customWidth="1"/>
-    <col min="7691" max="7693" width="8.83203125" style="10"/>
+    <col min="7691" max="7693" width="8.77734375" style="10"/>
     <col min="7694" max="7694" width="18.6640625" style="10" customWidth="1"/>
-    <col min="7695" max="7934" width="8.83203125" style="10"/>
-    <col min="7935" max="7935" width="19.1640625" style="10" customWidth="1"/>
-    <col min="7936" max="7936" width="5.1640625" style="10" customWidth="1"/>
-    <col min="7937" max="7937" width="40.1640625" style="10" customWidth="1"/>
-    <col min="7938" max="7938" width="16.5" style="10" customWidth="1"/>
-    <col min="7939" max="7939" width="33.1640625" style="10" customWidth="1"/>
-    <col min="7940" max="7940" width="8.5" style="10" customWidth="1"/>
+    <col min="7695" max="7934" width="8.77734375" style="10"/>
+    <col min="7935" max="7935" width="19.109375" style="10" customWidth="1"/>
+    <col min="7936" max="7936" width="5.109375" style="10" customWidth="1"/>
+    <col min="7937" max="7937" width="40.109375" style="10" customWidth="1"/>
+    <col min="7938" max="7938" width="16.44140625" style="10" customWidth="1"/>
+    <col min="7939" max="7939" width="33.109375" style="10" customWidth="1"/>
+    <col min="7940" max="7940" width="8.44140625" style="10" customWidth="1"/>
     <col min="7941" max="7941" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="7942" max="7942" width="13.1640625" style="10" customWidth="1"/>
+    <col min="7942" max="7942" width="13.109375" style="10" customWidth="1"/>
     <col min="7943" max="7943" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="7944" max="7944" width="41.33203125" style="10" customWidth="1"/>
     <col min="7945" max="7945" width="46" style="10" customWidth="1"/>
     <col min="7946" max="7946" width="12.33203125" style="10" customWidth="1"/>
-    <col min="7947" max="7949" width="8.83203125" style="10"/>
+    <col min="7947" max="7949" width="8.77734375" style="10"/>
     <col min="7950" max="7950" width="18.6640625" style="10" customWidth="1"/>
-    <col min="7951" max="8190" width="8.83203125" style="10"/>
-    <col min="8191" max="8191" width="19.1640625" style="10" customWidth="1"/>
-    <col min="8192" max="8192" width="5.1640625" style="10" customWidth="1"/>
-    <col min="8193" max="8193" width="40.1640625" style="10" customWidth="1"/>
-    <col min="8194" max="8194" width="16.5" style="10" customWidth="1"/>
-    <col min="8195" max="8195" width="33.1640625" style="10" customWidth="1"/>
-    <col min="8196" max="8196" width="8.5" style="10" customWidth="1"/>
+    <col min="7951" max="8190" width="8.77734375" style="10"/>
+    <col min="8191" max="8191" width="19.109375" style="10" customWidth="1"/>
+    <col min="8192" max="8192" width="5.109375" style="10" customWidth="1"/>
+    <col min="8193" max="8193" width="40.109375" style="10" customWidth="1"/>
+    <col min="8194" max="8194" width="16.44140625" style="10" customWidth="1"/>
+    <col min="8195" max="8195" width="33.109375" style="10" customWidth="1"/>
+    <col min="8196" max="8196" width="8.44140625" style="10" customWidth="1"/>
     <col min="8197" max="8197" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="8198" max="8198" width="13.1640625" style="10" customWidth="1"/>
+    <col min="8198" max="8198" width="13.109375" style="10" customWidth="1"/>
     <col min="8199" max="8199" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="8200" max="8200" width="41.33203125" style="10" customWidth="1"/>
     <col min="8201" max="8201" width="46" style="10" customWidth="1"/>
     <col min="8202" max="8202" width="12.33203125" style="10" customWidth="1"/>
-    <col min="8203" max="8205" width="8.83203125" style="10"/>
+    <col min="8203" max="8205" width="8.77734375" style="10"/>
     <col min="8206" max="8206" width="18.6640625" style="10" customWidth="1"/>
-    <col min="8207" max="8446" width="8.83203125" style="10"/>
-    <col min="8447" max="8447" width="19.1640625" style="10" customWidth="1"/>
-    <col min="8448" max="8448" width="5.1640625" style="10" customWidth="1"/>
-    <col min="8449" max="8449" width="40.1640625" style="10" customWidth="1"/>
-    <col min="8450" max="8450" width="16.5" style="10" customWidth="1"/>
-    <col min="8451" max="8451" width="33.1640625" style="10" customWidth="1"/>
-    <col min="8452" max="8452" width="8.5" style="10" customWidth="1"/>
+    <col min="8207" max="8446" width="8.77734375" style="10"/>
+    <col min="8447" max="8447" width="19.109375" style="10" customWidth="1"/>
+    <col min="8448" max="8448" width="5.109375" style="10" customWidth="1"/>
+    <col min="8449" max="8449" width="40.109375" style="10" customWidth="1"/>
+    <col min="8450" max="8450" width="16.44140625" style="10" customWidth="1"/>
+    <col min="8451" max="8451" width="33.109375" style="10" customWidth="1"/>
+    <col min="8452" max="8452" width="8.44140625" style="10" customWidth="1"/>
     <col min="8453" max="8453" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="8454" max="8454" width="13.1640625" style="10" customWidth="1"/>
+    <col min="8454" max="8454" width="13.109375" style="10" customWidth="1"/>
     <col min="8455" max="8455" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="8456" max="8456" width="41.33203125" style="10" customWidth="1"/>
     <col min="8457" max="8457" width="46" style="10" customWidth="1"/>
     <col min="8458" max="8458" width="12.33203125" style="10" customWidth="1"/>
-    <col min="8459" max="8461" width="8.83203125" style="10"/>
+    <col min="8459" max="8461" width="8.77734375" style="10"/>
     <col min="8462" max="8462" width="18.6640625" style="10" customWidth="1"/>
-    <col min="8463" max="8702" width="8.83203125" style="10"/>
-    <col min="8703" max="8703" width="19.1640625" style="10" customWidth="1"/>
-    <col min="8704" max="8704" width="5.1640625" style="10" customWidth="1"/>
-    <col min="8705" max="8705" width="40.1640625" style="10" customWidth="1"/>
-    <col min="8706" max="8706" width="16.5" style="10" customWidth="1"/>
-    <col min="8707" max="8707" width="33.1640625" style="10" customWidth="1"/>
-    <col min="8708" max="8708" width="8.5" style="10" customWidth="1"/>
+    <col min="8463" max="8702" width="8.77734375" style="10"/>
+    <col min="8703" max="8703" width="19.109375" style="10" customWidth="1"/>
+    <col min="8704" max="8704" width="5.109375" style="10" customWidth="1"/>
+    <col min="8705" max="8705" width="40.109375" style="10" customWidth="1"/>
+    <col min="8706" max="8706" width="16.44140625" style="10" customWidth="1"/>
+    <col min="8707" max="8707" width="33.109375" style="10" customWidth="1"/>
+    <col min="8708" max="8708" width="8.44140625" style="10" customWidth="1"/>
     <col min="8709" max="8709" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="8710" max="8710" width="13.1640625" style="10" customWidth="1"/>
+    <col min="8710" max="8710" width="13.109375" style="10" customWidth="1"/>
     <col min="8711" max="8711" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="8712" max="8712" width="41.33203125" style="10" customWidth="1"/>
     <col min="8713" max="8713" width="46" style="10" customWidth="1"/>
     <col min="8714" max="8714" width="12.33203125" style="10" customWidth="1"/>
-    <col min="8715" max="8717" width="8.83203125" style="10"/>
+    <col min="8715" max="8717" width="8.77734375" style="10"/>
     <col min="8718" max="8718" width="18.6640625" style="10" customWidth="1"/>
-    <col min="8719" max="8958" width="8.83203125" style="10"/>
-    <col min="8959" max="8959" width="19.1640625" style="10" customWidth="1"/>
-    <col min="8960" max="8960" width="5.1640625" style="10" customWidth="1"/>
-    <col min="8961" max="8961" width="40.1640625" style="10" customWidth="1"/>
-    <col min="8962" max="8962" width="16.5" style="10" customWidth="1"/>
-    <col min="8963" max="8963" width="33.1640625" style="10" customWidth="1"/>
-    <col min="8964" max="8964" width="8.5" style="10" customWidth="1"/>
+    <col min="8719" max="8958" width="8.77734375" style="10"/>
+    <col min="8959" max="8959" width="19.109375" style="10" customWidth="1"/>
+    <col min="8960" max="8960" width="5.109375" style="10" customWidth="1"/>
+    <col min="8961" max="8961" width="40.109375" style="10" customWidth="1"/>
+    <col min="8962" max="8962" width="16.44140625" style="10" customWidth="1"/>
+    <col min="8963" max="8963" width="33.109375" style="10" customWidth="1"/>
+    <col min="8964" max="8964" width="8.44140625" style="10" customWidth="1"/>
     <col min="8965" max="8965" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="8966" max="8966" width="13.1640625" style="10" customWidth="1"/>
+    <col min="8966" max="8966" width="13.109375" style="10" customWidth="1"/>
     <col min="8967" max="8967" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="8968" max="8968" width="41.33203125" style="10" customWidth="1"/>
     <col min="8969" max="8969" width="46" style="10" customWidth="1"/>
     <col min="8970" max="8970" width="12.33203125" style="10" customWidth="1"/>
-    <col min="8971" max="8973" width="8.83203125" style="10"/>
+    <col min="8971" max="8973" width="8.77734375" style="10"/>
     <col min="8974" max="8974" width="18.6640625" style="10" customWidth="1"/>
-    <col min="8975" max="9214" width="8.83203125" style="10"/>
-    <col min="9215" max="9215" width="19.1640625" style="10" customWidth="1"/>
-    <col min="9216" max="9216" width="5.1640625" style="10" customWidth="1"/>
-    <col min="9217" max="9217" width="40.1640625" style="10" customWidth="1"/>
-    <col min="9218" max="9218" width="16.5" style="10" customWidth="1"/>
-    <col min="9219" max="9219" width="33.1640625" style="10" customWidth="1"/>
-    <col min="9220" max="9220" width="8.5" style="10" customWidth="1"/>
+    <col min="8975" max="9214" width="8.77734375" style="10"/>
+    <col min="9215" max="9215" width="19.109375" style="10" customWidth="1"/>
+    <col min="9216" max="9216" width="5.109375" style="10" customWidth="1"/>
+    <col min="9217" max="9217" width="40.109375" style="10" customWidth="1"/>
+    <col min="9218" max="9218" width="16.44140625" style="10" customWidth="1"/>
+    <col min="9219" max="9219" width="33.109375" style="10" customWidth="1"/>
+    <col min="9220" max="9220" width="8.44140625" style="10" customWidth="1"/>
     <col min="9221" max="9221" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="9222" max="9222" width="13.1640625" style="10" customWidth="1"/>
+    <col min="9222" max="9222" width="13.109375" style="10" customWidth="1"/>
     <col min="9223" max="9223" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="9224" max="9224" width="41.33203125" style="10" customWidth="1"/>
     <col min="9225" max="9225" width="46" style="10" customWidth="1"/>
     <col min="9226" max="9226" width="12.33203125" style="10" customWidth="1"/>
-    <col min="9227" max="9229" width="8.83203125" style="10"/>
+    <col min="9227" max="9229" width="8.77734375" style="10"/>
     <col min="9230" max="9230" width="18.6640625" style="10" customWidth="1"/>
-    <col min="9231" max="9470" width="8.83203125" style="10"/>
-    <col min="9471" max="9471" width="19.1640625" style="10" customWidth="1"/>
-    <col min="9472" max="9472" width="5.1640625" style="10" customWidth="1"/>
-    <col min="9473" max="9473" width="40.1640625" style="10" customWidth="1"/>
-    <col min="9474" max="9474" width="16.5" style="10" customWidth="1"/>
-    <col min="9475" max="9475" width="33.1640625" style="10" customWidth="1"/>
-    <col min="9476" max="9476" width="8.5" style="10" customWidth="1"/>
+    <col min="9231" max="9470" width="8.77734375" style="10"/>
+    <col min="9471" max="9471" width="19.109375" style="10" customWidth="1"/>
+    <col min="9472" max="9472" width="5.109375" style="10" customWidth="1"/>
+    <col min="9473" max="9473" width="40.109375" style="10" customWidth="1"/>
+    <col min="9474" max="9474" width="16.44140625" style="10" customWidth="1"/>
+    <col min="9475" max="9475" width="33.109375" style="10" customWidth="1"/>
+    <col min="9476" max="9476" width="8.44140625" style="10" customWidth="1"/>
     <col min="9477" max="9477" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="9478" max="9478" width="13.1640625" style="10" customWidth="1"/>
+    <col min="9478" max="9478" width="13.109375" style="10" customWidth="1"/>
     <col min="9479" max="9479" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="9480" max="9480" width="41.33203125" style="10" customWidth="1"/>
     <col min="9481" max="9481" width="46" style="10" customWidth="1"/>
     <col min="9482" max="9482" width="12.33203125" style="10" customWidth="1"/>
-    <col min="9483" max="9485" width="8.83203125" style="10"/>
+    <col min="9483" max="9485" width="8.77734375" style="10"/>
     <col min="9486" max="9486" width="18.6640625" style="10" customWidth="1"/>
-    <col min="9487" max="9726" width="8.83203125" style="10"/>
-    <col min="9727" max="9727" width="19.1640625" style="10" customWidth="1"/>
-    <col min="9728" max="9728" width="5.1640625" style="10" customWidth="1"/>
-    <col min="9729" max="9729" width="40.1640625" style="10" customWidth="1"/>
-    <col min="9730" max="9730" width="16.5" style="10" customWidth="1"/>
-    <col min="9731" max="9731" width="33.1640625" style="10" customWidth="1"/>
-    <col min="9732" max="9732" width="8.5" style="10" customWidth="1"/>
+    <col min="9487" max="9726" width="8.77734375" style="10"/>
+    <col min="9727" max="9727" width="19.109375" style="10" customWidth="1"/>
+    <col min="9728" max="9728" width="5.109375" style="10" customWidth="1"/>
+    <col min="9729" max="9729" width="40.109375" style="10" customWidth="1"/>
+    <col min="9730" max="9730" width="16.44140625" style="10" customWidth="1"/>
+    <col min="9731" max="9731" width="33.109375" style="10" customWidth="1"/>
+    <col min="9732" max="9732" width="8.44140625" style="10" customWidth="1"/>
     <col min="9733" max="9733" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="9734" max="9734" width="13.1640625" style="10" customWidth="1"/>
+    <col min="9734" max="9734" width="13.109375" style="10" customWidth="1"/>
     <col min="9735" max="9735" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="9736" max="9736" width="41.33203125" style="10" customWidth="1"/>
     <col min="9737" max="9737" width="46" style="10" customWidth="1"/>
     <col min="9738" max="9738" width="12.33203125" style="10" customWidth="1"/>
-    <col min="9739" max="9741" width="8.83203125" style="10"/>
+    <col min="9739" max="9741" width="8.77734375" style="10"/>
     <col min="9742" max="9742" width="18.6640625" style="10" customWidth="1"/>
-    <col min="9743" max="9982" width="8.83203125" style="10"/>
-    <col min="9983" max="9983" width="19.1640625" style="10" customWidth="1"/>
-    <col min="9984" max="9984" width="5.1640625" style="10" customWidth="1"/>
-    <col min="9985" max="9985" width="40.1640625" style="10" customWidth="1"/>
-    <col min="9986" max="9986" width="16.5" style="10" customWidth="1"/>
-    <col min="9987" max="9987" width="33.1640625" style="10" customWidth="1"/>
-    <col min="9988" max="9988" width="8.5" style="10" customWidth="1"/>
+    <col min="9743" max="9982" width="8.77734375" style="10"/>
+    <col min="9983" max="9983" width="19.109375" style="10" customWidth="1"/>
+    <col min="9984" max="9984" width="5.109375" style="10" customWidth="1"/>
+    <col min="9985" max="9985" width="40.109375" style="10" customWidth="1"/>
+    <col min="9986" max="9986" width="16.44140625" style="10" customWidth="1"/>
+    <col min="9987" max="9987" width="33.109375" style="10" customWidth="1"/>
+    <col min="9988" max="9988" width="8.44140625" style="10" customWidth="1"/>
     <col min="9989" max="9989" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="9990" max="9990" width="13.1640625" style="10" customWidth="1"/>
+    <col min="9990" max="9990" width="13.109375" style="10" customWidth="1"/>
     <col min="9991" max="9991" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="9992" max="9992" width="41.33203125" style="10" customWidth="1"/>
     <col min="9993" max="9993" width="46" style="10" customWidth="1"/>
     <col min="9994" max="9994" width="12.33203125" style="10" customWidth="1"/>
-    <col min="9995" max="9997" width="8.83203125" style="10"/>
+    <col min="9995" max="9997" width="8.77734375" style="10"/>
     <col min="9998" max="9998" width="18.6640625" style="10" customWidth="1"/>
-    <col min="9999" max="10238" width="8.83203125" style="10"/>
-    <col min="10239" max="10239" width="19.1640625" style="10" customWidth="1"/>
-    <col min="10240" max="10240" width="5.1640625" style="10" customWidth="1"/>
-    <col min="10241" max="10241" width="40.1640625" style="10" customWidth="1"/>
-    <col min="10242" max="10242" width="16.5" style="10" customWidth="1"/>
-    <col min="10243" max="10243" width="33.1640625" style="10" customWidth="1"/>
-    <col min="10244" max="10244" width="8.5" style="10" customWidth="1"/>
+    <col min="9999" max="10238" width="8.77734375" style="10"/>
+    <col min="10239" max="10239" width="19.109375" style="10" customWidth="1"/>
+    <col min="10240" max="10240" width="5.109375" style="10" customWidth="1"/>
+    <col min="10241" max="10241" width="40.109375" style="10" customWidth="1"/>
+    <col min="10242" max="10242" width="16.44140625" style="10" customWidth="1"/>
+    <col min="10243" max="10243" width="33.109375" style="10" customWidth="1"/>
+    <col min="10244" max="10244" width="8.44140625" style="10" customWidth="1"/>
     <col min="10245" max="10245" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="10246" max="10246" width="13.1640625" style="10" customWidth="1"/>
+    <col min="10246" max="10246" width="13.109375" style="10" customWidth="1"/>
     <col min="10247" max="10247" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="10248" max="10248" width="41.33203125" style="10" customWidth="1"/>
     <col min="10249" max="10249" width="46" style="10" customWidth="1"/>
     <col min="10250" max="10250" width="12.33203125" style="10" customWidth="1"/>
-    <col min="10251" max="10253" width="8.83203125" style="10"/>
+    <col min="10251" max="10253" width="8.77734375" style="10"/>
     <col min="10254" max="10254" width="18.6640625" style="10" customWidth="1"/>
-    <col min="10255" max="10494" width="8.83203125" style="10"/>
-    <col min="10495" max="10495" width="19.1640625" style="10" customWidth="1"/>
-    <col min="10496" max="10496" width="5.1640625" style="10" customWidth="1"/>
-    <col min="10497" max="10497" width="40.1640625" style="10" customWidth="1"/>
-    <col min="10498" max="10498" width="16.5" style="10" customWidth="1"/>
-    <col min="10499" max="10499" width="33.1640625" style="10" customWidth="1"/>
-    <col min="10500" max="10500" width="8.5" style="10" customWidth="1"/>
+    <col min="10255" max="10494" width="8.77734375" style="10"/>
+    <col min="10495" max="10495" width="19.109375" style="10" customWidth="1"/>
+    <col min="10496" max="10496" width="5.109375" style="10" customWidth="1"/>
+    <col min="10497" max="10497" width="40.109375" style="10" customWidth="1"/>
+    <col min="10498" max="10498" width="16.44140625" style="10" customWidth="1"/>
+    <col min="10499" max="10499" width="33.109375" style="10" customWidth="1"/>
+    <col min="10500" max="10500" width="8.44140625" style="10" customWidth="1"/>
     <col min="10501" max="10501" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="10502" max="10502" width="13.1640625" style="10" customWidth="1"/>
+    <col min="10502" max="10502" width="13.109375" style="10" customWidth="1"/>
     <col min="10503" max="10503" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="10504" max="10504" width="41.33203125" style="10" customWidth="1"/>
     <col min="10505" max="10505" width="46" style="10" customWidth="1"/>
     <col min="10506" max="10506" width="12.33203125" style="10" customWidth="1"/>
-    <col min="10507" max="10509" width="8.83203125" style="10"/>
+    <col min="10507" max="10509" width="8.77734375" style="10"/>
     <col min="10510" max="10510" width="18.6640625" style="10" customWidth="1"/>
-    <col min="10511" max="10750" width="8.83203125" style="10"/>
-    <col min="10751" max="10751" width="19.1640625" style="10" customWidth="1"/>
-    <col min="10752" max="10752" width="5.1640625" style="10" customWidth="1"/>
-    <col min="10753" max="10753" width="40.1640625" style="10" customWidth="1"/>
-    <col min="10754" max="10754" width="16.5" style="10" customWidth="1"/>
-    <col min="10755" max="10755" width="33.1640625" style="10" customWidth="1"/>
-    <col min="10756" max="10756" width="8.5" style="10" customWidth="1"/>
+    <col min="10511" max="10750" width="8.77734375" style="10"/>
+    <col min="10751" max="10751" width="19.109375" style="10" customWidth="1"/>
+    <col min="10752" max="10752" width="5.109375" style="10" customWidth="1"/>
+    <col min="10753" max="10753" width="40.109375" style="10" customWidth="1"/>
+    <col min="10754" max="10754" width="16.44140625" style="10" customWidth="1"/>
+    <col min="10755" max="10755" width="33.109375" style="10" customWidth="1"/>
+    <col min="10756" max="10756" width="8.44140625" style="10" customWidth="1"/>
     <col min="10757" max="10757" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="10758" max="10758" width="13.1640625" style="10" customWidth="1"/>
+    <col min="10758" max="10758" width="13.109375" style="10" customWidth="1"/>
     <col min="10759" max="10759" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="10760" max="10760" width="41.33203125" style="10" customWidth="1"/>
     <col min="10761" max="10761" width="46" style="10" customWidth="1"/>
     <col min="10762" max="10762" width="12.33203125" style="10" customWidth="1"/>
-    <col min="10763" max="10765" width="8.83203125" style="10"/>
+    <col min="10763" max="10765" width="8.77734375" style="10"/>
     <col min="10766" max="10766" width="18.6640625" style="10" customWidth="1"/>
-    <col min="10767" max="11006" width="8.83203125" style="10"/>
-    <col min="11007" max="11007" width="19.1640625" style="10" customWidth="1"/>
-    <col min="11008" max="11008" width="5.1640625" style="10" customWidth="1"/>
-    <col min="11009" max="11009" width="40.1640625" style="10" customWidth="1"/>
-    <col min="11010" max="11010" width="16.5" style="10" customWidth="1"/>
-    <col min="11011" max="11011" width="33.1640625" style="10" customWidth="1"/>
-    <col min="11012" max="11012" width="8.5" style="10" customWidth="1"/>
+    <col min="10767" max="11006" width="8.77734375" style="10"/>
+    <col min="11007" max="11007" width="19.109375" style="10" customWidth="1"/>
+    <col min="11008" max="11008" width="5.109375" style="10" customWidth="1"/>
+    <col min="11009" max="11009" width="40.109375" style="10" customWidth="1"/>
+    <col min="11010" max="11010" width="16.44140625" style="10" customWidth="1"/>
+    <col min="11011" max="11011" width="33.109375" style="10" customWidth="1"/>
+    <col min="11012" max="11012" width="8.44140625" style="10" customWidth="1"/>
     <col min="11013" max="11013" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="11014" max="11014" width="13.1640625" style="10" customWidth="1"/>
+    <col min="11014" max="11014" width="13.109375" style="10" customWidth="1"/>
     <col min="11015" max="11015" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="11016" max="11016" width="41.33203125" style="10" customWidth="1"/>
     <col min="11017" max="11017" width="46" style="10" customWidth="1"/>
     <col min="11018" max="11018" width="12.33203125" style="10" customWidth="1"/>
-    <col min="11019" max="11021" width="8.83203125" style="10"/>
+    <col min="11019" max="11021" width="8.77734375" style="10"/>
     <col min="11022" max="11022" width="18.6640625" style="10" customWidth="1"/>
-    <col min="11023" max="11262" width="8.83203125" style="10"/>
-    <col min="11263" max="11263" width="19.1640625" style="10" customWidth="1"/>
-    <col min="11264" max="11264" width="5.1640625" style="10" customWidth="1"/>
-    <col min="11265" max="11265" width="40.1640625" style="10" customWidth="1"/>
-    <col min="11266" max="11266" width="16.5" style="10" customWidth="1"/>
-    <col min="11267" max="11267" width="33.1640625" style="10" customWidth="1"/>
-    <col min="11268" max="11268" width="8.5" style="10" customWidth="1"/>
+    <col min="11023" max="11262" width="8.77734375" style="10"/>
+    <col min="11263" max="11263" width="19.109375" style="10" customWidth="1"/>
+    <col min="11264" max="11264" width="5.109375" style="10" customWidth="1"/>
+    <col min="11265" max="11265" width="40.109375" style="10" customWidth="1"/>
+    <col min="11266" max="11266" width="16.44140625" style="10" customWidth="1"/>
+    <col min="11267" max="11267" width="33.109375" style="10" customWidth="1"/>
+    <col min="11268" max="11268" width="8.44140625" style="10" customWidth="1"/>
     <col min="11269" max="11269" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="11270" max="11270" width="13.1640625" style="10" customWidth="1"/>
+    <col min="11270" max="11270" width="13.109375" style="10" customWidth="1"/>
     <col min="11271" max="11271" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="11272" max="11272" width="41.33203125" style="10" customWidth="1"/>
     <col min="11273" max="11273" width="46" style="10" customWidth="1"/>
     <col min="11274" max="11274" width="12.33203125" style="10" customWidth="1"/>
-    <col min="11275" max="11277" width="8.83203125" style="10"/>
+    <col min="11275" max="11277" width="8.77734375" style="10"/>
     <col min="11278" max="11278" width="18.6640625" style="10" customWidth="1"/>
-    <col min="11279" max="11518" width="8.83203125" style="10"/>
-    <col min="11519" max="11519" width="19.1640625" style="10" customWidth="1"/>
-    <col min="11520" max="11520" width="5.1640625" style="10" customWidth="1"/>
-    <col min="11521" max="11521" width="40.1640625" style="10" customWidth="1"/>
-    <col min="11522" max="11522" width="16.5" style="10" customWidth="1"/>
-    <col min="11523" max="11523" width="33.1640625" style="10" customWidth="1"/>
-    <col min="11524" max="11524" width="8.5" style="10" customWidth="1"/>
+    <col min="11279" max="11518" width="8.77734375" style="10"/>
+    <col min="11519" max="11519" width="19.109375" style="10" customWidth="1"/>
+    <col min="11520" max="11520" width="5.109375" style="10" customWidth="1"/>
+    <col min="11521" max="11521" width="40.109375" style="10" customWidth="1"/>
+    <col min="11522" max="11522" width="16.44140625" style="10" customWidth="1"/>
+    <col min="11523" max="11523" width="33.109375" style="10" customWidth="1"/>
+    <col min="11524" max="11524" width="8.44140625" style="10" customWidth="1"/>
     <col min="11525" max="11525" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="11526" max="11526" width="13.1640625" style="10" customWidth="1"/>
+    <col min="11526" max="11526" width="13.109375" style="10" customWidth="1"/>
     <col min="11527" max="11527" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="11528" max="11528" width="41.33203125" style="10" customWidth="1"/>
     <col min="11529" max="11529" width="46" style="10" customWidth="1"/>
     <col min="11530" max="11530" width="12.33203125" style="10" customWidth="1"/>
-    <col min="11531" max="11533" width="8.83203125" style="10"/>
+    <col min="11531" max="11533" width="8.77734375" style="10"/>
     <col min="11534" max="11534" width="18.6640625" style="10" customWidth="1"/>
-    <col min="11535" max="11774" width="8.83203125" style="10"/>
-    <col min="11775" max="11775" width="19.1640625" style="10" customWidth="1"/>
-    <col min="11776" max="11776" width="5.1640625" style="10" customWidth="1"/>
-    <col min="11777" max="11777" width="40.1640625" style="10" customWidth="1"/>
-    <col min="11778" max="11778" width="16.5" style="10" customWidth="1"/>
-    <col min="11779" max="11779" width="33.1640625" style="10" customWidth="1"/>
-    <col min="11780" max="11780" width="8.5" style="10" customWidth="1"/>
+    <col min="11535" max="11774" width="8.77734375" style="10"/>
+    <col min="11775" max="11775" width="19.109375" style="10" customWidth="1"/>
+    <col min="11776" max="11776" width="5.109375" style="10" customWidth="1"/>
+    <col min="11777" max="11777" width="40.109375" style="10" customWidth="1"/>
+    <col min="11778" max="11778" width="16.44140625" style="10" customWidth="1"/>
+    <col min="11779" max="11779" width="33.109375" style="10" customWidth="1"/>
+    <col min="11780" max="11780" width="8.44140625" style="10" customWidth="1"/>
     <col min="11781" max="11781" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="11782" max="11782" width="13.1640625" style="10" customWidth="1"/>
+    <col min="11782" max="11782" width="13.109375" style="10" customWidth="1"/>
     <col min="11783" max="11783" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="11784" max="11784" width="41.33203125" style="10" customWidth="1"/>
     <col min="11785" max="11785" width="46" style="10" customWidth="1"/>
     <col min="11786" max="11786" width="12.33203125" style="10" customWidth="1"/>
-    <col min="11787" max="11789" width="8.83203125" style="10"/>
+    <col min="11787" max="11789" width="8.77734375" style="10"/>
     <col min="11790" max="11790" width="18.6640625" style="10" customWidth="1"/>
-    <col min="11791" max="12030" width="8.83203125" style="10"/>
-    <col min="12031" max="12031" width="19.1640625" style="10" customWidth="1"/>
-    <col min="12032" max="12032" width="5.1640625" style="10" customWidth="1"/>
-    <col min="12033" max="12033" width="40.1640625" style="10" customWidth="1"/>
-    <col min="12034" max="12034" width="16.5" style="10" customWidth="1"/>
-    <col min="12035" max="12035" width="33.1640625" style="10" customWidth="1"/>
-    <col min="12036" max="12036" width="8.5" style="10" customWidth="1"/>
+    <col min="11791" max="12030" width="8.77734375" style="10"/>
+    <col min="12031" max="12031" width="19.109375" style="10" customWidth="1"/>
+    <col min="12032" max="12032" width="5.109375" style="10" customWidth="1"/>
+    <col min="12033" max="12033" width="40.109375" style="10" customWidth="1"/>
+    <col min="12034" max="12034" width="16.44140625" style="10" customWidth="1"/>
+    <col min="12035" max="12035" width="33.109375" style="10" customWidth="1"/>
+    <col min="12036" max="12036" width="8.44140625" style="10" customWidth="1"/>
     <col min="12037" max="12037" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="12038" max="12038" width="13.1640625" style="10" customWidth="1"/>
+    <col min="12038" max="12038" width="13.109375" style="10" customWidth="1"/>
     <col min="12039" max="12039" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="12040" max="12040" width="41.33203125" style="10" customWidth="1"/>
     <col min="12041" max="12041" width="46" style="10" customWidth="1"/>
     <col min="12042" max="12042" width="12.33203125" style="10" customWidth="1"/>
-    <col min="12043" max="12045" width="8.83203125" style="10"/>
+    <col min="12043" max="12045" width="8.77734375" style="10"/>
     <col min="12046" max="12046" width="18.6640625" style="10" customWidth="1"/>
-    <col min="12047" max="12286" width="8.83203125" style="10"/>
-    <col min="12287" max="12287" width="19.1640625" style="10" customWidth="1"/>
-    <col min="12288" max="12288" width="5.1640625" style="10" customWidth="1"/>
-    <col min="12289" max="12289" width="40.1640625" style="10" customWidth="1"/>
-    <col min="12290" max="12290" width="16.5" style="10" customWidth="1"/>
-    <col min="12291" max="12291" width="33.1640625" style="10" customWidth="1"/>
-    <col min="12292" max="12292" width="8.5" style="10" customWidth="1"/>
+    <col min="12047" max="12286" width="8.77734375" style="10"/>
+    <col min="12287" max="12287" width="19.109375" style="10" customWidth="1"/>
+    <col min="12288" max="12288" width="5.109375" style="10" customWidth="1"/>
+    <col min="12289" max="12289" width="40.109375" style="10" customWidth="1"/>
+    <col min="12290" max="12290" width="16.44140625" style="10" customWidth="1"/>
+    <col min="12291" max="12291" width="33.109375" style="10" customWidth="1"/>
+    <col min="12292" max="12292" width="8.44140625" style="10" customWidth="1"/>
     <col min="12293" max="12293" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="12294" max="12294" width="13.1640625" style="10" customWidth="1"/>
+    <col min="12294" max="12294" width="13.109375" style="10" customWidth="1"/>
     <col min="12295" max="12295" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="12296" max="12296" width="41.33203125" style="10" customWidth="1"/>
     <col min="12297" max="12297" width="46" style="10" customWidth="1"/>
     <col min="12298" max="12298" width="12.33203125" style="10" customWidth="1"/>
-    <col min="12299" max="12301" width="8.83203125" style="10"/>
+    <col min="12299" max="12301" width="8.77734375" style="10"/>
     <col min="12302" max="12302" width="18.6640625" style="10" customWidth="1"/>
-    <col min="12303" max="12542" width="8.83203125" style="10"/>
-    <col min="12543" max="12543" width="19.1640625" style="10" customWidth="1"/>
-    <col min="12544" max="12544" width="5.1640625" style="10" customWidth="1"/>
-    <col min="12545" max="12545" width="40.1640625" style="10" customWidth="1"/>
-    <col min="12546" max="12546" width="16.5" style="10" customWidth="1"/>
-    <col min="12547" max="12547" width="33.1640625" style="10" customWidth="1"/>
-    <col min="12548" max="12548" width="8.5" style="10" customWidth="1"/>
+    <col min="12303" max="12542" width="8.77734375" style="10"/>
+    <col min="12543" max="12543" width="19.109375" style="10" customWidth="1"/>
+    <col min="12544" max="12544" width="5.109375" style="10" customWidth="1"/>
+    <col min="12545" max="12545" width="40.109375" style="10" customWidth="1"/>
+    <col min="12546" max="12546" width="16.44140625" style="10" customWidth="1"/>
+    <col min="12547" max="12547" width="33.109375" style="10" customWidth="1"/>
+    <col min="12548" max="12548" width="8.44140625" style="10" customWidth="1"/>
     <col min="12549" max="12549" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="12550" max="12550" width="13.1640625" style="10" customWidth="1"/>
+    <col min="12550" max="12550" width="13.109375" style="10" customWidth="1"/>
     <col min="12551" max="12551" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="12552" max="12552" width="41.33203125" style="10" customWidth="1"/>
     <col min="12553" max="12553" width="46" style="10" customWidth="1"/>
     <col min="12554" max="12554" width="12.33203125" style="10" customWidth="1"/>
-    <col min="12555" max="12557" width="8.83203125" style="10"/>
+    <col min="12555" max="12557" width="8.77734375" style="10"/>
     <col min="12558" max="12558" width="18.6640625" style="10" customWidth="1"/>
-    <col min="12559" max="12798" width="8.83203125" style="10"/>
-    <col min="12799" max="12799" width="19.1640625" style="10" customWidth="1"/>
-    <col min="12800" max="12800" width="5.1640625" style="10" customWidth="1"/>
-    <col min="12801" max="12801" width="40.1640625" style="10" customWidth="1"/>
-    <col min="12802" max="12802" width="16.5" style="10" customWidth="1"/>
-    <col min="12803" max="12803" width="33.1640625" style="10" customWidth="1"/>
-    <col min="12804" max="12804" width="8.5" style="10" customWidth="1"/>
+    <col min="12559" max="12798" width="8.77734375" style="10"/>
+    <col min="12799" max="12799" width="19.109375" style="10" customWidth="1"/>
+    <col min="12800" max="12800" width="5.109375" style="10" customWidth="1"/>
+    <col min="12801" max="12801" width="40.109375" style="10" customWidth="1"/>
+    <col min="12802" max="12802" width="16.44140625" style="10" customWidth="1"/>
+    <col min="12803" max="12803" width="33.109375" style="10" customWidth="1"/>
+    <col min="12804" max="12804" width="8.44140625" style="10" customWidth="1"/>
     <col min="12805" max="12805" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="12806" max="12806" width="13.1640625" style="10" customWidth="1"/>
+    <col min="12806" max="12806" width="13.109375" style="10" customWidth="1"/>
     <col min="12807" max="12807" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="12808" max="12808" width="41.33203125" style="10" customWidth="1"/>
     <col min="12809" max="12809" width="46" style="10" customWidth="1"/>
     <col min="12810" max="12810" width="12.33203125" style="10" customWidth="1"/>
-    <col min="12811" max="12813" width="8.83203125" style="10"/>
+    <col min="12811" max="12813" width="8.77734375" style="10"/>
     <col min="12814" max="12814" width="18.6640625" style="10" customWidth="1"/>
-    <col min="12815" max="13054" width="8.83203125" style="10"/>
-    <col min="13055" max="13055" width="19.1640625" style="10" customWidth="1"/>
-    <col min="13056" max="13056" width="5.1640625" style="10" customWidth="1"/>
-    <col min="13057" max="13057" width="40.1640625" style="10" customWidth="1"/>
-    <col min="13058" max="13058" width="16.5" style="10" customWidth="1"/>
-    <col min="13059" max="13059" width="33.1640625" style="10" customWidth="1"/>
-    <col min="13060" max="13060" width="8.5" style="10" customWidth="1"/>
+    <col min="12815" max="13054" width="8.77734375" style="10"/>
+    <col min="13055" max="13055" width="19.109375" style="10" customWidth="1"/>
+    <col min="13056" max="13056" width="5.109375" style="10" customWidth="1"/>
+    <col min="13057" max="13057" width="40.109375" style="10" customWidth="1"/>
+    <col min="13058" max="13058" width="16.44140625" style="10" customWidth="1"/>
+    <col min="13059" max="13059" width="33.109375" style="10" customWidth="1"/>
+    <col min="13060" max="13060" width="8.44140625" style="10" customWidth="1"/>
     <col min="13061" max="13061" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="13062" max="13062" width="13.1640625" style="10" customWidth="1"/>
+    <col min="13062" max="13062" width="13.109375" style="10" customWidth="1"/>
     <col min="13063" max="13063" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="13064" max="13064" width="41.33203125" style="10" customWidth="1"/>
     <col min="13065" max="13065" width="46" style="10" customWidth="1"/>
     <col min="13066" max="13066" width="12.33203125" style="10" customWidth="1"/>
-    <col min="13067" max="13069" width="8.83203125" style="10"/>
+    <col min="13067" max="13069" width="8.77734375" style="10"/>
     <col min="13070" max="13070" width="18.6640625" style="10" customWidth="1"/>
-    <col min="13071" max="13310" width="8.83203125" style="10"/>
-    <col min="13311" max="13311" width="19.1640625" style="10" customWidth="1"/>
-    <col min="13312" max="13312" width="5.1640625" style="10" customWidth="1"/>
-    <col min="13313" max="13313" width="40.1640625" style="10" customWidth="1"/>
-    <col min="13314" max="13314" width="16.5" style="10" customWidth="1"/>
-    <col min="13315" max="13315" width="33.1640625" style="10" customWidth="1"/>
-    <col min="13316" max="13316" width="8.5" style="10" customWidth="1"/>
+    <col min="13071" max="13310" width="8.77734375" style="10"/>
+    <col min="13311" max="13311" width="19.109375" style="10" customWidth="1"/>
+    <col min="13312" max="13312" width="5.109375" style="10" customWidth="1"/>
+    <col min="13313" max="13313" width="40.109375" style="10" customWidth="1"/>
+    <col min="13314" max="13314" width="16.44140625" style="10" customWidth="1"/>
+    <col min="13315" max="13315" width="33.109375" style="10" customWidth="1"/>
+    <col min="13316" max="13316" width="8.44140625" style="10" customWidth="1"/>
     <col min="13317" max="13317" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="13318" max="13318" width="13.1640625" style="10" customWidth="1"/>
+    <col min="13318" max="13318" width="13.109375" style="10" customWidth="1"/>
     <col min="13319" max="13319" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="13320" max="13320" width="41.33203125" style="10" customWidth="1"/>
     <col min="13321" max="13321" width="46" style="10" customWidth="1"/>
     <col min="13322" max="13322" width="12.33203125" style="10" customWidth="1"/>
-    <col min="13323" max="13325" width="8.83203125" style="10"/>
+    <col min="13323" max="13325" width="8.77734375" style="10"/>
     <col min="13326" max="13326" width="18.6640625" style="10" customWidth="1"/>
-    <col min="13327" max="13566" width="8.83203125" style="10"/>
-    <col min="13567" max="13567" width="19.1640625" style="10" customWidth="1"/>
-    <col min="13568" max="13568" width="5.1640625" style="10" customWidth="1"/>
-    <col min="13569" max="13569" width="40.1640625" style="10" customWidth="1"/>
-    <col min="13570" max="13570" width="16.5" style="10" customWidth="1"/>
-    <col min="13571" max="13571" width="33.1640625" style="10" customWidth="1"/>
-    <col min="13572" max="13572" width="8.5" style="10" customWidth="1"/>
+    <col min="13327" max="13566" width="8.77734375" style="10"/>
+    <col min="13567" max="13567" width="19.109375" style="10" customWidth="1"/>
+    <col min="13568" max="13568" width="5.109375" style="10" customWidth="1"/>
+    <col min="13569" max="13569" width="40.109375" style="10" customWidth="1"/>
+    <col min="13570" max="13570" width="16.44140625" style="10" customWidth="1"/>
+    <col min="13571" max="13571" width="33.109375" style="10" customWidth="1"/>
+    <col min="13572" max="13572" width="8.44140625" style="10" customWidth="1"/>
     <col min="13573" max="13573" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="13574" max="13574" width="13.1640625" style="10" customWidth="1"/>
+    <col min="13574" max="13574" width="13.109375" style="10" customWidth="1"/>
     <col min="13575" max="13575" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="13576" max="13576" width="41.33203125" style="10" customWidth="1"/>
     <col min="13577" max="13577" width="46" style="10" customWidth="1"/>
     <col min="13578" max="13578" width="12.33203125" style="10" customWidth="1"/>
-    <col min="13579" max="13581" width="8.83203125" style="10"/>
+    <col min="13579" max="13581" width="8.77734375" style="10"/>
     <col min="13582" max="13582" width="18.6640625" style="10" customWidth="1"/>
-    <col min="13583" max="13822" width="8.83203125" style="10"/>
-    <col min="13823" max="13823" width="19.1640625" style="10" customWidth="1"/>
-    <col min="13824" max="13824" width="5.1640625" style="10" customWidth="1"/>
-    <col min="13825" max="13825" width="40.1640625" style="10" customWidth="1"/>
-    <col min="13826" max="13826" width="16.5" style="10" customWidth="1"/>
-    <col min="13827" max="13827" width="33.1640625" style="10" customWidth="1"/>
-    <col min="13828" max="13828" width="8.5" style="10" customWidth="1"/>
+    <col min="13583" max="13822" width="8.77734375" style="10"/>
+    <col min="13823" max="13823" width="19.109375" style="10" customWidth="1"/>
+    <col min="13824" max="13824" width="5.109375" style="10" customWidth="1"/>
+    <col min="13825" max="13825" width="40.109375" style="10" customWidth="1"/>
+    <col min="13826" max="13826" width="16.44140625" style="10" customWidth="1"/>
+    <col min="13827" max="13827" width="33.109375" style="10" customWidth="1"/>
+    <col min="13828" max="13828" width="8.44140625" style="10" customWidth="1"/>
     <col min="13829" max="13829" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="13830" max="13830" width="13.1640625" style="10" customWidth="1"/>
+    <col min="13830" max="13830" width="13.109375" style="10" customWidth="1"/>
     <col min="13831" max="13831" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="13832" max="13832" width="41.33203125" style="10" customWidth="1"/>
     <col min="13833" max="13833" width="46" style="10" customWidth="1"/>
     <col min="13834" max="13834" width="12.33203125" style="10" customWidth="1"/>
-    <col min="13835" max="13837" width="8.83203125" style="10"/>
+    <col min="13835" max="13837" width="8.77734375" style="10"/>
     <col min="13838" max="13838" width="18.6640625" style="10" customWidth="1"/>
-    <col min="13839" max="14078" width="8.83203125" style="10"/>
-    <col min="14079" max="14079" width="19.1640625" style="10" customWidth="1"/>
-    <col min="14080" max="14080" width="5.1640625" style="10" customWidth="1"/>
-    <col min="14081" max="14081" width="40.1640625" style="10" customWidth="1"/>
-    <col min="14082" max="14082" width="16.5" style="10" customWidth="1"/>
-    <col min="14083" max="14083" width="33.1640625" style="10" customWidth="1"/>
-    <col min="14084" max="14084" width="8.5" style="10" customWidth="1"/>
+    <col min="13839" max="14078" width="8.77734375" style="10"/>
+    <col min="14079" max="14079" width="19.109375" style="10" customWidth="1"/>
+    <col min="14080" max="14080" width="5.109375" style="10" customWidth="1"/>
+    <col min="14081" max="14081" width="40.109375" style="10" customWidth="1"/>
+    <col min="14082" max="14082" width="16.44140625" style="10" customWidth="1"/>
+    <col min="14083" max="14083" width="33.109375" style="10" customWidth="1"/>
+    <col min="14084" max="14084" width="8.44140625" style="10" customWidth="1"/>
     <col min="14085" max="14085" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="14086" max="14086" width="13.1640625" style="10" customWidth="1"/>
+    <col min="14086" max="14086" width="13.109375" style="10" customWidth="1"/>
     <col min="14087" max="14087" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="14088" max="14088" width="41.33203125" style="10" customWidth="1"/>
     <col min="14089" max="14089" width="46" style="10" customWidth="1"/>
     <col min="14090" max="14090" width="12.33203125" style="10" customWidth="1"/>
-    <col min="14091" max="14093" width="8.83203125" style="10"/>
+    <col min="14091" max="14093" width="8.77734375" style="10"/>
     <col min="14094" max="14094" width="18.6640625" style="10" customWidth="1"/>
-    <col min="14095" max="14334" width="8.83203125" style="10"/>
-    <col min="14335" max="14335" width="19.1640625" style="10" customWidth="1"/>
-    <col min="14336" max="14336" width="5.1640625" style="10" customWidth="1"/>
-    <col min="14337" max="14337" width="40.1640625" style="10" customWidth="1"/>
-    <col min="14338" max="14338" width="16.5" style="10" customWidth="1"/>
-    <col min="14339" max="14339" width="33.1640625" style="10" customWidth="1"/>
-    <col min="14340" max="14340" width="8.5" style="10" customWidth="1"/>
+    <col min="14095" max="14334" width="8.77734375" style="10"/>
+    <col min="14335" max="14335" width="19.109375" style="10" customWidth="1"/>
+    <col min="14336" max="14336" width="5.109375" style="10" customWidth="1"/>
+    <col min="14337" max="14337" width="40.109375" style="10" customWidth="1"/>
+    <col min="14338" max="14338" width="16.44140625" style="10" customWidth="1"/>
+    <col min="14339" max="14339" width="33.109375" style="10" customWidth="1"/>
+    <col min="14340" max="14340" width="8.44140625" style="10" customWidth="1"/>
     <col min="14341" max="14341" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="14342" max="14342" width="13.1640625" style="10" customWidth="1"/>
+    <col min="14342" max="14342" width="13.109375" style="10" customWidth="1"/>
     <col min="14343" max="14343" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="14344" max="14344" width="41.33203125" style="10" customWidth="1"/>
     <col min="14345" max="14345" width="46" style="10" customWidth="1"/>
     <col min="14346" max="14346" width="12.33203125" style="10" customWidth="1"/>
-    <col min="14347" max="14349" width="8.83203125" style="10"/>
+    <col min="14347" max="14349" width="8.77734375" style="10"/>
     <col min="14350" max="14350" width="18.6640625" style="10" customWidth="1"/>
-    <col min="14351" max="14590" width="8.83203125" style="10"/>
-    <col min="14591" max="14591" width="19.1640625" style="10" customWidth="1"/>
-    <col min="14592" max="14592" width="5.1640625" style="10" customWidth="1"/>
-    <col min="14593" max="14593" width="40.1640625" style="10" customWidth="1"/>
-    <col min="14594" max="14594" width="16.5" style="10" customWidth="1"/>
-    <col min="14595" max="14595" width="33.1640625" style="10" customWidth="1"/>
-    <col min="14596" max="14596" width="8.5" style="10" customWidth="1"/>
+    <col min="14351" max="14590" width="8.77734375" style="10"/>
+    <col min="14591" max="14591" width="19.109375" style="10" customWidth="1"/>
+    <col min="14592" max="14592" width="5.109375" style="10" customWidth="1"/>
+    <col min="14593" max="14593" width="40.109375" style="10" customWidth="1"/>
+    <col min="14594" max="14594" width="16.44140625" style="10" customWidth="1"/>
+    <col min="14595" max="14595" width="33.109375" style="10" customWidth="1"/>
+    <col min="14596" max="14596" width="8.44140625" style="10" customWidth="1"/>
     <col min="14597" max="14597" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="14598" max="14598" width="13.1640625" style="10" customWidth="1"/>
+    <col min="14598" max="14598" width="13.109375" style="10" customWidth="1"/>
     <col min="14599" max="14599" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="14600" max="14600" width="41.33203125" style="10" customWidth="1"/>
     <col min="14601" max="14601" width="46" style="10" customWidth="1"/>
     <col min="14602" max="14602" width="12.33203125" style="10" customWidth="1"/>
-    <col min="14603" max="14605" width="8.83203125" style="10"/>
+    <col min="14603" max="14605" width="8.77734375" style="10"/>
     <col min="14606" max="14606" width="18.6640625" style="10" customWidth="1"/>
-    <col min="14607" max="14846" width="8.83203125" style="10"/>
-    <col min="14847" max="14847" width="19.1640625" style="10" customWidth="1"/>
-    <col min="14848" max="14848" width="5.1640625" style="10" customWidth="1"/>
-    <col min="14849" max="14849" width="40.1640625" style="10" customWidth="1"/>
-    <col min="14850" max="14850" width="16.5" style="10" customWidth="1"/>
-    <col min="14851" max="14851" width="33.1640625" style="10" customWidth="1"/>
-    <col min="14852" max="14852" width="8.5" style="10" customWidth="1"/>
+    <col min="14607" max="14846" width="8.77734375" style="10"/>
+    <col min="14847" max="14847" width="19.109375" style="10" customWidth="1"/>
+    <col min="14848" max="14848" width="5.109375" style="10" customWidth="1"/>
+    <col min="14849" max="14849" width="40.109375" style="10" customWidth="1"/>
+    <col min="14850" max="14850" width="16.44140625" style="10" customWidth="1"/>
+    <col min="14851" max="14851" width="33.109375" style="10" customWidth="1"/>
+    <col min="14852" max="14852" width="8.44140625" style="10" customWidth="1"/>
     <col min="14853" max="14853" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="14854" max="14854" width="13.1640625" style="10" customWidth="1"/>
+    <col min="14854" max="14854" width="13.109375" style="10" customWidth="1"/>
     <col min="14855" max="14855" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="14856" max="14856" width="41.33203125" style="10" customWidth="1"/>
     <col min="14857" max="14857" width="46" style="10" customWidth="1"/>
     <col min="14858" max="14858" width="12.33203125" style="10" customWidth="1"/>
-    <col min="14859" max="14861" width="8.83203125" style="10"/>
+    <col min="14859" max="14861" width="8.77734375" style="10"/>
     <col min="14862" max="14862" width="18.6640625" style="10" customWidth="1"/>
-    <col min="14863" max="15102" width="8.83203125" style="10"/>
-    <col min="15103" max="15103" width="19.1640625" style="10" customWidth="1"/>
-    <col min="15104" max="15104" width="5.1640625" style="10" customWidth="1"/>
-    <col min="15105" max="15105" width="40.1640625" style="10" customWidth="1"/>
-    <col min="15106" max="15106" width="16.5" style="10" customWidth="1"/>
-    <col min="15107" max="15107" width="33.1640625" style="10" customWidth="1"/>
-    <col min="15108" max="15108" width="8.5" style="10" customWidth="1"/>
+    <col min="14863" max="15102" width="8.77734375" style="10"/>
+    <col min="15103" max="15103" width="19.109375" style="10" customWidth="1"/>
+    <col min="15104" max="15104" width="5.109375" style="10" customWidth="1"/>
+    <col min="15105" max="15105" width="40.109375" style="10" customWidth="1"/>
+    <col min="15106" max="15106" width="16.44140625" style="10" customWidth="1"/>
+    <col min="15107" max="15107" width="33.109375" style="10" customWidth="1"/>
+    <col min="15108" max="15108" width="8.44140625" style="10" customWidth="1"/>
     <col min="15109" max="15109" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="15110" max="15110" width="13.1640625" style="10" customWidth="1"/>
+    <col min="15110" max="15110" width="13.109375" style="10" customWidth="1"/>
     <col min="15111" max="15111" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="15112" max="15112" width="41.33203125" style="10" customWidth="1"/>
     <col min="15113" max="15113" width="46" style="10" customWidth="1"/>
     <col min="15114" max="15114" width="12.33203125" style="10" customWidth="1"/>
-    <col min="15115" max="15117" width="8.83203125" style="10"/>
+    <col min="15115" max="15117" width="8.77734375" style="10"/>
     <col min="15118" max="15118" width="18.6640625" style="10" customWidth="1"/>
-    <col min="15119" max="15358" width="8.83203125" style="10"/>
-    <col min="15359" max="15359" width="19.1640625" style="10" customWidth="1"/>
-    <col min="15360" max="15360" width="5.1640625" style="10" customWidth="1"/>
-    <col min="15361" max="15361" width="40.1640625" style="10" customWidth="1"/>
-    <col min="15362" max="15362" width="16.5" style="10" customWidth="1"/>
-    <col min="15363" max="15363" width="33.1640625" style="10" customWidth="1"/>
-    <col min="15364" max="15364" width="8.5" style="10" customWidth="1"/>
+    <col min="15119" max="15358" width="8.77734375" style="10"/>
+    <col min="15359" max="15359" width="19.109375" style="10" customWidth="1"/>
+    <col min="15360" max="15360" width="5.109375" style="10" customWidth="1"/>
+    <col min="15361" max="15361" width="40.109375" style="10" customWidth="1"/>
+    <col min="15362" max="15362" width="16.44140625" style="10" customWidth="1"/>
+    <col min="15363" max="15363" width="33.109375" style="10" customWidth="1"/>
+    <col min="15364" max="15364" width="8.44140625" style="10" customWidth="1"/>
     <col min="15365" max="15365" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="15366" max="15366" width="13.1640625" style="10" customWidth="1"/>
+    <col min="15366" max="15366" width="13.109375" style="10" customWidth="1"/>
     <col min="15367" max="15367" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="15368" max="15368" width="41.33203125" style="10" customWidth="1"/>
     <col min="15369" max="15369" width="46" style="10" customWidth="1"/>
     <col min="15370" max="15370" width="12.33203125" style="10" customWidth="1"/>
-    <col min="15371" max="15373" width="8.83203125" style="10"/>
+    <col min="15371" max="15373" width="8.77734375" style="10"/>
     <col min="15374" max="15374" width="18.6640625" style="10" customWidth="1"/>
-    <col min="15375" max="15614" width="8.83203125" style="10"/>
-    <col min="15615" max="15615" width="19.1640625" style="10" customWidth="1"/>
-    <col min="15616" max="15616" width="5.1640625" style="10" customWidth="1"/>
-    <col min="15617" max="15617" width="40.1640625" style="10" customWidth="1"/>
-    <col min="15618" max="15618" width="16.5" style="10" customWidth="1"/>
-    <col min="15619" max="15619" width="33.1640625" style="10" customWidth="1"/>
-    <col min="15620" max="15620" width="8.5" style="10" customWidth="1"/>
+    <col min="15375" max="15614" width="8.77734375" style="10"/>
+    <col min="15615" max="15615" width="19.109375" style="10" customWidth="1"/>
+    <col min="15616" max="15616" width="5.109375" style="10" customWidth="1"/>
+    <col min="15617" max="15617" width="40.109375" style="10" customWidth="1"/>
+    <col min="15618" max="15618" width="16.44140625" style="10" customWidth="1"/>
+    <col min="15619" max="15619" width="33.109375" style="10" customWidth="1"/>
+    <col min="15620" max="15620" width="8.44140625" style="10" customWidth="1"/>
     <col min="15621" max="15621" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="15622" max="15622" width="13.1640625" style="10" customWidth="1"/>
+    <col min="15622" max="15622" width="13.109375" style="10" customWidth="1"/>
     <col min="15623" max="15623" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="15624" max="15624" width="41.33203125" style="10" customWidth="1"/>
     <col min="15625" max="15625" width="46" style="10" customWidth="1"/>
     <col min="15626" max="15626" width="12.33203125" style="10" customWidth="1"/>
-    <col min="15627" max="15629" width="8.83203125" style="10"/>
+    <col min="15627" max="15629" width="8.77734375" style="10"/>
     <col min="15630" max="15630" width="18.6640625" style="10" customWidth="1"/>
-    <col min="15631" max="15870" width="8.83203125" style="10"/>
-    <col min="15871" max="15871" width="19.1640625" style="10" customWidth="1"/>
-    <col min="15872" max="15872" width="5.1640625" style="10" customWidth="1"/>
-    <col min="15873" max="15873" width="40.1640625" style="10" customWidth="1"/>
-    <col min="15874" max="15874" width="16.5" style="10" customWidth="1"/>
-    <col min="15875" max="15875" width="33.1640625" style="10" customWidth="1"/>
-    <col min="15876" max="15876" width="8.5" style="10" customWidth="1"/>
+    <col min="15631" max="15870" width="8.77734375" style="10"/>
+    <col min="15871" max="15871" width="19.109375" style="10" customWidth="1"/>
+    <col min="15872" max="15872" width="5.109375" style="10" customWidth="1"/>
+    <col min="15873" max="15873" width="40.109375" style="10" customWidth="1"/>
+    <col min="15874" max="15874" width="16.44140625" style="10" customWidth="1"/>
+    <col min="15875" max="15875" width="33.109375" style="10" customWidth="1"/>
+    <col min="15876" max="15876" width="8.44140625" style="10" customWidth="1"/>
     <col min="15877" max="15877" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="15878" max="15878" width="13.1640625" style="10" customWidth="1"/>
+    <col min="15878" max="15878" width="13.109375" style="10" customWidth="1"/>
     <col min="15879" max="15879" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="15880" max="15880" width="41.33203125" style="10" customWidth="1"/>
     <col min="15881" max="15881" width="46" style="10" customWidth="1"/>
     <col min="15882" max="15882" width="12.33203125" style="10" customWidth="1"/>
-    <col min="15883" max="15885" width="8.83203125" style="10"/>
+    <col min="15883" max="15885" width="8.77734375" style="10"/>
     <col min="15886" max="15886" width="18.6640625" style="10" customWidth="1"/>
-    <col min="15887" max="16126" width="8.83203125" style="10"/>
-    <col min="16127" max="16127" width="19.1640625" style="10" customWidth="1"/>
-    <col min="16128" max="16128" width="5.1640625" style="10" customWidth="1"/>
-    <col min="16129" max="16129" width="40.1640625" style="10" customWidth="1"/>
-    <col min="16130" max="16130" width="16.5" style="10" customWidth="1"/>
-    <col min="16131" max="16131" width="33.1640625" style="10" customWidth="1"/>
-    <col min="16132" max="16132" width="8.5" style="10" customWidth="1"/>
+    <col min="15887" max="16126" width="8.77734375" style="10"/>
+    <col min="16127" max="16127" width="19.109375" style="10" customWidth="1"/>
+    <col min="16128" max="16128" width="5.109375" style="10" customWidth="1"/>
+    <col min="16129" max="16129" width="40.109375" style="10" customWidth="1"/>
+    <col min="16130" max="16130" width="16.44140625" style="10" customWidth="1"/>
+    <col min="16131" max="16131" width="33.109375" style="10" customWidth="1"/>
+    <col min="16132" max="16132" width="8.44140625" style="10" customWidth="1"/>
     <col min="16133" max="16133" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="16134" max="16134" width="13.1640625" style="10" customWidth="1"/>
+    <col min="16134" max="16134" width="13.109375" style="10" customWidth="1"/>
     <col min="16135" max="16135" width="0" style="10" hidden="1" customWidth="1"/>
     <col min="16136" max="16136" width="41.33203125" style="10" customWidth="1"/>
     <col min="16137" max="16137" width="46" style="10" customWidth="1"/>
     <col min="16138" max="16138" width="12.33203125" style="10" customWidth="1"/>
-    <col min="16139" max="16141" width="8.83203125" style="10"/>
+    <col min="16139" max="16141" width="8.77734375" style="10"/>
     <col min="16142" max="16142" width="18.6640625" style="10" customWidth="1"/>
-    <col min="16143" max="16384" width="8.83203125" style="10"/>
+    <col min="16143" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>112</v>
       </c>
@@ -5441,7 +5077,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -5473,7 +5109,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -5505,7 +5141,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="4"/>
       <c r="B4" s="13" t="s">
         <v>138</v>
@@ -5524,7 +5160,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="4"/>
       <c r="B5" s="13" t="s">
         <v>140</v>
@@ -5542,7 +5178,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>141</v>
@@ -5560,7 +5196,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>142</v>
@@ -5578,7 +5214,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="4"/>
       <c r="B8" s="13" t="s">
         <v>143</v>
@@ -5597,7 +5233,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="20" customFormat="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -5615,7 +5251,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="27" customFormat="1">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
         <v>144</v>
@@ -5642,7 +5278,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11" s="4"/>
       <c r="B11" s="13" t="s">
         <v>148</v>
@@ -5667,7 +5303,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="B12" s="13" t="s">
         <v>153</v>
       </c>
@@ -5692,7 +5328,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="B13" s="13" t="s">
         <v>155</v>
       </c>
@@ -5715,7 +5351,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="B14" s="13" t="s">
         <v>157</v>
       </c>
@@ -5738,7 +5374,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="27" customFormat="1">
       <c r="B15" s="28" t="s">
         <v>159</v>
       </c>
@@ -5761,7 +5397,7 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="B16" s="13" t="s">
         <v>160</v>
       </c>
@@ -5784,7 +5420,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13">
       <c r="B17" s="13" t="s">
         <v>162</v>
       </c>
@@ -5807,7 +5443,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13">
       <c r="B18" s="13" t="s">
         <v>164</v>
       </c>
@@ -5830,7 +5466,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13">
       <c r="B19" s="13" t="s">
         <v>166</v>
       </c>
@@ -5839,12 +5475,12 @@
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" s="20" customFormat="1">
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13">
       <c r="B21" s="13" t="s">
         <v>168</v>
       </c>
@@ -5868,7 +5504,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13">
       <c r="B22" s="13" t="s">
         <v>173</v>
       </c>
@@ -5892,7 +5528,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13">
       <c r="B23" s="13" t="s">
         <v>175</v>
       </c>
@@ -5916,7 +5552,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13">
       <c r="B24" s="13" t="s">
         <v>177</v>
       </c>
@@ -5940,7 +5576,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13">
       <c r="B25" s="13" t="s">
         <v>179</v>
       </c>
@@ -5964,8 +5600,8 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" s="20" customFormat="1"/>
+    <row r="27" spans="2:13" s="27" customFormat="1">
       <c r="B27" s="27" t="s">
         <v>181</v>
       </c>
@@ -5985,7 +5621,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13">
       <c r="B28" s="13" t="s">
         <v>185</v>
       </c>
@@ -5993,7 +5629,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13">
       <c r="B29" s="13" t="s">
         <v>187</v>
       </c>
@@ -6001,7 +5637,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13">
       <c r="B30" s="13" t="s">
         <v>189</v>
       </c>
@@ -6009,7 +5645,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13">
       <c r="B31" s="13" t="s">
         <v>191</v>
       </c>
@@ -6019,7 +5655,7 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13">
       <c r="B32" s="13" t="s">
         <v>193</v>
       </c>
@@ -6027,7 +5663,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5">
       <c r="B33" s="13" t="s">
         <v>195</v>
       </c>
@@ -6035,7 +5671,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5">
       <c r="B34" s="13" t="s">
         <v>197</v>
       </c>
@@ -6043,7 +5679,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5">
       <c r="B35" s="13" t="s">
         <v>199</v>
       </c>
@@ -6052,7 +5688,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5">
       <c r="B36" s="13" t="s">
         <v>201</v>
       </c>
@@ -6060,7 +5696,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5">
       <c r="B37" s="13" t="s">
         <v>203</v>
       </c>
@@ -6068,7 +5704,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5">
       <c r="B38" s="13" t="s">
         <v>205</v>
       </c>
@@ -6076,7 +5712,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5">
       <c r="B39" s="13" t="s">
         <v>207</v>
       </c>
@@ -6085,7 +5721,7 @@
       </c>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5">
       <c r="B40" s="13" t="s">
         <v>209</v>
       </c>
@@ -6094,7 +5730,7 @@
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5">
       <c r="B41" s="13" t="s">
         <v>211</v>
       </c>
@@ -6103,7 +5739,7 @@
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5">
       <c r="B42" s="13" t="s">
         <v>213</v>
       </c>
@@ -6112,7 +5748,7 @@
       </c>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5">
       <c r="B43" s="13" t="s">
         <v>215</v>
       </c>
@@ -6121,12 +5757,12 @@
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="2:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" s="27" customFormat="1">
       <c r="B44" s="27" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5">
       <c r="B45" s="13" t="s">
         <v>218</v>
       </c>
@@ -6135,7 +5771,7 @@
       </c>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5">
       <c r="B46" s="13" t="s">
         <v>220</v>
       </c>
@@ -6144,7 +5780,7 @@
       </c>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5">
       <c r="B47" s="13" t="s">
         <v>222</v>
       </c>
@@ -6153,7 +5789,7 @@
       </c>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5">
       <c r="B48" s="13" t="s">
         <v>224</v>
       </c>
@@ -6162,12 +5798,12 @@
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="2:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" s="27" customFormat="1">
       <c r="B49" s="27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11">
       <c r="B50" s="13" t="s">
         <v>227</v>
       </c>
@@ -6176,7 +5812,7 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11">
       <c r="B51" s="13" t="s">
         <v>229</v>
       </c>
@@ -6185,7 +5821,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11">
       <c r="B52" s="13" t="s">
         <v>231</v>
       </c>
@@ -6194,7 +5830,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11">
       <c r="B53" s="13" t="s">
         <v>233</v>
       </c>
@@ -6203,7 +5839,7 @@
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11">
       <c r="B54" s="13" t="s">
         <v>235</v>
       </c>
@@ -6212,7 +5848,7 @@
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11">
       <c r="B55" s="13" t="s">
         <v>237</v>
       </c>
@@ -6221,7 +5857,7 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11">
       <c r="B56" s="13" t="s">
         <v>239</v>
       </c>
@@ -6230,8 +5866,8 @@
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" s="20" customFormat="1"/>
+    <row r="58" spans="2:11">
       <c r="F58" s="5" t="s">
         <v>241</v>
       </c>
@@ -6249,7 +5885,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11">
       <c r="B59" s="13" t="s">
         <v>244</v>
       </c>
@@ -6262,7 +5898,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11">
       <c r="B60" s="13" t="s">
         <v>246</v>
       </c>
@@ -6275,7 +5911,7 @@
       <c r="I60" s="5"/>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11">
       <c r="B61" s="13" t="s">
         <v>248</v>
       </c>
@@ -6288,7 +5924,7 @@
       <c r="I61" s="5"/>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11">
       <c r="B62" s="13" t="s">
         <v>250</v>
       </c>
@@ -6301,7 +5937,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11">
       <c r="B63" s="13" t="s">
         <v>252</v>
       </c>
@@ -6314,7 +5950,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11">
       <c r="B64" s="13" t="s">
         <v>254</v>
       </c>
@@ -6327,7 +5963,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:11">
       <c r="B65" s="13" t="s">
         <v>256</v>
       </c>
@@ -6340,7 +5976,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:11">
       <c r="B66" s="13" t="s">
         <v>258</v>
       </c>
@@ -6353,7 +5989,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:11">
       <c r="B67" s="13" t="s">
         <v>260</v>
       </c>
@@ -6366,7 +6002,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:11">
       <c r="B68" s="13" t="s">
         <v>262</v>
       </c>
@@ -6379,7 +6015,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:11">
       <c r="B69" s="13" t="s">
         <v>264</v>
       </c>
@@ -6392,7 +6028,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:11">
       <c r="B70" s="13" t="s">
         <v>266</v>
       </c>
@@ -6405,7 +6041,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:11">
       <c r="B71" s="13" t="s">
         <v>268</v>
       </c>
@@ -6418,7 +6054,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:11">
       <c r="B72" s="13" t="s">
         <v>270</v>
       </c>
@@ -6431,8 +6067,8 @@
       <c r="I72" s="5"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:11" s="20" customFormat="1"/>
+    <row r="74" spans="2:11">
       <c r="B74" s="13" t="s">
         <v>272</v>
       </c>
@@ -6456,7 +6092,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:11">
       <c r="B75" s="13" t="s">
         <v>277</v>
       </c>
@@ -6469,7 +6105,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:11">
       <c r="B76" s="13" t="s">
         <v>279</v>
       </c>
@@ -6482,7 +6118,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:11">
       <c r="B77" s="13" t="s">
         <v>281</v>
       </c>
@@ -6495,7 +6131,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:11">
       <c r="B78" s="13" t="s">
         <v>283</v>
       </c>
@@ -6508,7 +6144,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:11">
       <c r="B79" s="13" t="s">
         <v>285</v>
       </c>
@@ -6521,7 +6157,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:11">
       <c r="B80" s="13" t="s">
         <v>287</v>
       </c>
@@ -6534,7 +6170,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:10">
       <c r="B81" s="13" t="s">
         <v>289</v>
       </c>
@@ -6547,7 +6183,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:10">
       <c r="B82" s="13" t="s">
         <v>291</v>
       </c>
@@ -6560,7 +6196,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:10">
       <c r="B83" s="13" t="s">
         <v>293</v>
       </c>
@@ -6573,7 +6209,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:10">
       <c r="B84" s="13" t="s">
         <v>295</v>
       </c>
@@ -6586,7 +6222,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:10">
       <c r="B85" s="13" t="s">
         <v>296</v>
       </c>
@@ -6599,7 +6235,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:10">
       <c r="B86" s="13" t="s">
         <v>298</v>
       </c>
@@ -6612,7 +6248,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:10">
       <c r="B87" s="13" t="s">
         <v>300</v>
       </c>
@@ -6625,7 +6261,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:10">
       <c r="B88" s="13" t="s">
         <v>302</v>
       </c>
@@ -6638,7 +6274,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:10">
       <c r="B89" s="13" t="s">
         <v>304</v>
       </c>
@@ -6651,7 +6287,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:10">
       <c r="B90" s="13" t="s">
         <v>306</v>
       </c>
@@ -6664,7 +6300,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:10">
       <c r="B91" s="13" t="s">
         <v>308</v>
       </c>
@@ -6677,7 +6313,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:10">
       <c r="B92" s="13" t="s">
         <v>310</v>
       </c>
@@ -6690,7 +6326,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:10">
       <c r="B93" s="13" t="s">
         <v>312</v>
       </c>
@@ -6703,7 +6339,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:10">
       <c r="B94" s="13" t="s">
         <v>314</v>
       </c>
@@ -6716,7 +6352,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:10">
       <c r="B95" s="13" t="s">
         <v>316</v>
       </c>
@@ -6729,8 +6365,8 @@
       <c r="I95" s="5"/>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:10" s="20" customFormat="1"/>
+    <row r="97" spans="2:11">
       <c r="B97" s="13" t="s">
         <v>318</v>
       </c>
@@ -6754,7 +6390,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11">
       <c r="D98" s="4" t="s">
         <v>323</v>
       </c>
@@ -6764,7 +6400,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:11">
       <c r="D99" s="4" t="s">
         <v>324</v>
       </c>
@@ -6774,8 +6410,8 @@
       <c r="I99" s="5"/>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" s="20" customFormat="1"/>
+    <row r="101" spans="2:11">
       <c r="B101" s="13" t="s">
         <v>325</v>
       </c>
@@ -6799,7 +6435,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11">
       <c r="B102" s="13" t="s">
         <v>330</v>
       </c>
@@ -6812,7 +6448,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11">
       <c r="B103" s="13" t="s">
         <v>332</v>
       </c>
@@ -6825,7 +6461,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11">
       <c r="B104" s="13" t="s">
         <v>334</v>
       </c>
@@ -6838,7 +6474,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11">
       <c r="B105" s="13" t="s">
         <v>336</v>
       </c>
@@ -6851,7 +6487,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11">
       <c r="B106" s="13" t="s">
         <v>338</v>
       </c>
@@ -6864,7 +6500,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11">
       <c r="B107" s="13" t="s">
         <v>340</v>
       </c>
@@ -6877,7 +6513,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11">
       <c r="B108" s="13" t="s">
         <v>342</v>
       </c>
@@ -6890,7 +6526,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:11">
       <c r="B109" s="13" t="s">
         <v>344</v>
       </c>
@@ -6903,7 +6539,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:11">
       <c r="B110" s="13" t="s">
         <v>346</v>
       </c>
@@ -6916,7 +6552,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:11">
       <c r="B111" s="13" t="s">
         <v>348</v>
       </c>
@@ -6929,7 +6565,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:11">
       <c r="B112" s="13" t="s">
         <v>350</v>
       </c>
@@ -6942,7 +6578,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:11">
       <c r="B113" s="13" t="s">
         <v>352</v>
       </c>
@@ -6955,7 +6591,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:11">
       <c r="B114" s="13" t="s">
         <v>354</v>
       </c>
@@ -6968,7 +6604,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:11">
       <c r="B115" s="13" t="s">
         <v>356</v>
       </c>
@@ -6981,7 +6617,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:11">
       <c r="B116" s="13" t="s">
         <v>358</v>
       </c>
@@ -6994,7 +6630,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:11">
       <c r="B117" s="13" t="s">
         <v>360</v>
       </c>
@@ -7007,7 +6643,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:11">
       <c r="B118" s="13" t="s">
         <v>362</v>
       </c>
@@ -7020,7 +6656,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:11">
       <c r="B119" s="13" t="s">
         <v>364</v>
       </c>
@@ -7033,8 +6669,8 @@
       <c r="I119" s="5"/>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:11" s="20" customFormat="1"/>
+    <row r="121" spans="2:11">
       <c r="B121" s="13" t="s">
         <v>366</v>
       </c>
@@ -7058,7 +6694,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:11">
       <c r="B122" s="13" t="s">
         <v>371</v>
       </c>
@@ -7071,7 +6707,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:11">
       <c r="B123" s="13" t="s">
         <v>373</v>
       </c>
@@ -7084,7 +6720,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:11">
       <c r="B124" s="13" t="s">
         <v>375</v>
       </c>
@@ -7097,7 +6733,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:11">
       <c r="B125" s="13" t="s">
         <v>377</v>
       </c>
@@ -7110,7 +6746,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="11"/>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:11">
       <c r="B126" s="13" t="s">
         <v>379</v>
       </c>
@@ -7118,7 +6754,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:11">
       <c r="B127" s="13" t="s">
         <v>381</v>
       </c>
@@ -7131,7 +6767,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="11"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:11">
       <c r="B128" s="13" t="s">
         <v>383</v>
       </c>
@@ -7144,7 +6780,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:10">
       <c r="B129" s="13" t="s">
         <v>385</v>
       </c>
@@ -7157,7 +6793,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="11"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:10">
       <c r="B130" s="13" t="s">
         <v>387</v>
       </c>
@@ -7170,7 +6806,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="11"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:10">
       <c r="B131" s="13" t="s">
         <v>389</v>
       </c>
@@ -7183,7 +6819,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="11"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:10">
       <c r="B132" s="13" t="s">
         <v>391</v>
       </c>
@@ -7196,7 +6832,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:10">
       <c r="B133" s="13" t="s">
         <v>393</v>
       </c>
@@ -7209,7 +6845,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:10">
       <c r="B134" s="13" t="s">
         <v>395</v>
       </c>
@@ -7222,7 +6858,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:10">
       <c r="B135" s="13" t="s">
         <v>397</v>
       </c>
@@ -7235,7 +6871,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:10">
       <c r="B136" s="13" t="s">
         <v>399</v>
       </c>
@@ -7248,7 +6884,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:10">
       <c r="B137" s="13" t="s">
         <v>401</v>
       </c>
@@ -7261,7 +6897,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:10">
       <c r="B138" s="13" t="s">
         <v>403</v>
       </c>
@@ -7274,7 +6910,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="11"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:10">
       <c r="B139" s="13" t="s">
         <v>405</v>
       </c>
@@ -7287,7 +6923,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:10">
       <c r="B140" s="13" t="s">
         <v>407</v>
       </c>
@@ -7300,7 +6936,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="11"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:10">
       <c r="B141" s="13" t="s">
         <v>409</v>
       </c>
@@ -7313,7 +6949,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:10">
       <c r="B142" s="13" t="s">
         <v>411</v>
       </c>
@@ -7326,7 +6962,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:10">
       <c r="B143" s="13" t="s">
         <v>413</v>
       </c>
@@ -7339,7 +6975,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="11"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:10">
       <c r="B144" s="13" t="s">
         <v>415</v>
       </c>
@@ -7352,7 +6988,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:10">
       <c r="B145" s="13" t="s">
         <v>417</v>
       </c>
@@ -7365,7 +7001,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="11"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:10">
       <c r="B146" s="13" t="s">
         <v>419</v>
       </c>
@@ -7378,7 +7014,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:10">
       <c r="B147" s="13" t="s">
         <v>421</v>
       </c>
@@ -7391,7 +7027,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:10">
       <c r="B148" s="13" t="s">
         <v>423</v>
       </c>
@@ -7404,7 +7040,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:10">
       <c r="B149" s="13" t="s">
         <v>425</v>
       </c>
@@ -7417,7 +7053,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:10">
       <c r="B150" s="13" t="s">
         <v>427</v>
       </c>
@@ -7430,7 +7066,7 @@
       <c r="I150" s="5"/>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:10">
       <c r="B151" s="13" t="s">
         <v>429</v>
       </c>
@@ -7443,7 +7079,7 @@
       <c r="I151" s="5"/>
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:10">
       <c r="B152" s="13" t="s">
         <v>431</v>
       </c>
@@ -7456,7 +7092,7 @@
       <c r="I152" s="5"/>
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:10">
       <c r="B153" s="13" t="s">
         <v>433</v>
       </c>
@@ -7469,7 +7105,7 @@
       <c r="I153" s="5"/>
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:10">
       <c r="B154" s="13" t="s">
         <v>435</v>
       </c>
@@ -7482,7 +7118,7 @@
       <c r="I154" s="5"/>
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:10">
       <c r="B155" s="13" t="s">
         <v>437</v>
       </c>
@@ -7490,7 +7126,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:10">
       <c r="B156" s="13" t="s">
         <v>439</v>
       </c>
@@ -7503,7 +7139,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:10">
       <c r="B157" s="13" t="s">
         <v>441</v>
       </c>
@@ -7516,7 +7152,7 @@
       <c r="I157" s="5"/>
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:10">
       <c r="B158" s="13" t="s">
         <v>443</v>
       </c>
@@ -7529,7 +7165,7 @@
       <c r="I158" s="5"/>
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:10">
       <c r="B159" s="13" t="s">
         <v>445</v>
       </c>
@@ -7542,8 +7178,8 @@
       <c r="I159" s="5"/>
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:10" s="20" customFormat="1"/>
+    <row r="161" spans="2:11">
       <c r="B161" s="13" t="s">
         <v>447</v>
       </c>
@@ -7567,7 +7203,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:11">
       <c r="B162" s="13" t="s">
         <v>452</v>
       </c>
@@ -7580,7 +7216,7 @@
       <c r="I162" s="5"/>
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:11">
       <c r="B163" s="13" t="s">
         <v>454</v>
       </c>
@@ -7593,7 +7229,7 @@
       <c r="I163" s="5"/>
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:11">
       <c r="B164" s="13" t="s">
         <v>456</v>
       </c>
@@ -7606,7 +7242,7 @@
       <c r="I164" s="5"/>
       <c r="J164" s="11"/>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:11">
       <c r="B165" s="13" t="s">
         <v>458</v>
       </c>
@@ -7619,7 +7255,7 @@
       <c r="I165" s="5"/>
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:11">
       <c r="B166" s="13" t="s">
         <v>460</v>
       </c>
@@ -7632,7 +7268,7 @@
       <c r="I166" s="5"/>
       <c r="J166" s="11"/>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:11">
       <c r="B167" s="13" t="s">
         <v>462</v>
       </c>
@@ -7645,7 +7281,7 @@
       <c r="I167" s="5"/>
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:11">
       <c r="B168" s="13" t="s">
         <v>464</v>
       </c>
@@ -7658,7 +7294,7 @@
       <c r="I168" s="5"/>
       <c r="J168" s="11"/>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:11">
       <c r="B169" s="13" t="s">
         <v>466</v>
       </c>
@@ -7671,7 +7307,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="11"/>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:11">
       <c r="B170" s="13" t="s">
         <v>468</v>
       </c>
@@ -7684,7 +7320,7 @@
       <c r="I170" s="5"/>
       <c r="J170" s="11"/>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:11">
       <c r="B171" s="13" t="s">
         <v>470</v>
       </c>
@@ -7697,7 +7333,7 @@
       <c r="I171" s="5"/>
       <c r="J171" s="11"/>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:11">
       <c r="B172" s="13" t="s">
         <v>472</v>
       </c>
@@ -7710,7 +7346,7 @@
       <c r="I172" s="5"/>
       <c r="J172" s="11"/>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:11">
       <c r="B173" s="13" t="s">
         <v>474</v>
       </c>
@@ -7723,7 +7359,7 @@
       <c r="I173" s="5"/>
       <c r="J173" s="11"/>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:11">
       <c r="B174" s="13" t="s">
         <v>476</v>
       </c>
@@ -7736,7 +7372,7 @@
       <c r="I174" s="5"/>
       <c r="J174" s="11"/>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:11">
       <c r="B175" s="13" t="s">
         <v>478</v>
       </c>
@@ -7749,7 +7385,7 @@
       <c r="I175" s="5"/>
       <c r="J175" s="11"/>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:11">
       <c r="B176" s="13" t="s">
         <v>480</v>
       </c>
@@ -7762,7 +7398,7 @@
       <c r="I176" s="5"/>
       <c r="J176" s="11"/>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:11">
       <c r="B177" s="13" t="s">
         <v>482</v>
       </c>
@@ -7775,7 +7411,7 @@
       <c r="I177" s="5"/>
       <c r="J177" s="11"/>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:11">
       <c r="B178" s="13" t="s">
         <v>484</v>
       </c>
@@ -7788,13 +7424,13 @@
       <c r="I178" s="5"/>
       <c r="J178" s="11"/>
     </row>
-    <row r="179" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="180" spans="2:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:11" s="20" customFormat="1"/>
+    <row r="180" spans="2:11" s="27" customFormat="1">
       <c r="B180" s="27" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:11">
       <c r="B181" s="13" t="s">
         <v>487</v>
       </c>
@@ -7818,7 +7454,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:11">
       <c r="B182" s="13" t="s">
         <v>492</v>
       </c>
@@ -7831,7 +7467,7 @@
       <c r="I182" s="5"/>
       <c r="J182" s="11"/>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:11">
       <c r="B183" s="13" t="s">
         <v>494</v>
       </c>
@@ -7844,7 +7480,7 @@
       <c r="I183" s="5"/>
       <c r="J183" s="11"/>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:11">
       <c r="B184" s="13" t="s">
         <v>496</v>
       </c>
@@ -7857,7 +7493,7 @@
       <c r="I184" s="5"/>
       <c r="J184" s="11"/>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:11">
       <c r="B185" s="13" t="s">
         <v>498</v>
       </c>
@@ -7865,7 +7501,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:11">
       <c r="B186" s="13" t="s">
         <v>500</v>
       </c>
@@ -7873,7 +7509,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:11">
       <c r="B187" s="13" t="s">
         <v>502</v>
       </c>
@@ -7881,7 +7517,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:11">
       <c r="B188" s="13" t="s">
         <v>504</v>
       </c>
@@ -7889,7 +7525,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:11">
       <c r="B189" s="13" t="s">
         <v>506</v>
       </c>
@@ -7902,7 +7538,7 @@
       <c r="I189" s="5"/>
       <c r="J189" s="11"/>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:11">
       <c r="B190" s="13" t="s">
         <v>508</v>
       </c>
@@ -7915,7 +7551,7 @@
       <c r="I190" s="5"/>
       <c r="J190" s="11"/>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:11">
       <c r="B191" s="13" t="s">
         <v>510</v>
       </c>
@@ -7928,7 +7564,7 @@
       <c r="I191" s="5"/>
       <c r="J191" s="11"/>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:11">
       <c r="B192" s="13" t="s">
         <v>512</v>
       </c>
@@ -7941,7 +7577,7 @@
       <c r="I192" s="5"/>
       <c r="J192" s="11"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:10">
       <c r="B193" s="13" t="s">
         <v>514</v>
       </c>
@@ -7954,7 +7590,7 @@
       <c r="I193" s="5"/>
       <c r="J193" s="11"/>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:10">
       <c r="B194" s="13" t="s">
         <v>516</v>
       </c>
@@ -7967,7 +7603,7 @@
       <c r="I194" s="5"/>
       <c r="J194" s="11"/>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:10">
       <c r="B195" s="13" t="s">
         <v>518</v>
       </c>
@@ -7980,7 +7616,7 @@
       <c r="I195" s="5"/>
       <c r="J195" s="11"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:10">
       <c r="B196" s="13" t="s">
         <v>520</v>
       </c>
@@ -7993,7 +7629,7 @@
       <c r="I196" s="5"/>
       <c r="J196" s="11"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:10">
       <c r="B197" s="13" t="s">
         <v>522</v>
       </c>
@@ -8001,7 +7637,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:10">
       <c r="B198" s="13" t="s">
         <v>524</v>
       </c>
@@ -8009,7 +7645,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:10">
       <c r="B199" s="13" t="s">
         <v>526</v>
       </c>
@@ -8017,7 +7653,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:10">
       <c r="B200" s="13" t="s">
         <v>528</v>
       </c>
@@ -8025,12 +7661,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="201" spans="2:10" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:10" s="27" customFormat="1">
       <c r="B201" s="27" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:10">
       <c r="B202" s="13" t="s">
         <v>531</v>
       </c>
@@ -8043,7 +7679,7 @@
       <c r="I202" s="5"/>
       <c r="J202" s="11"/>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:10">
       <c r="B203" s="13" t="s">
         <v>533</v>
       </c>
@@ -8056,7 +7692,7 @@
       <c r="I203" s="5"/>
       <c r="J203" s="11"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:10">
       <c r="B204" s="13" t="s">
         <v>535</v>
       </c>
@@ -8069,7 +7705,7 @@
       <c r="I204" s="5"/>
       <c r="J204" s="11"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:10">
       <c r="B205" s="13" t="s">
         <v>537</v>
       </c>
@@ -8082,7 +7718,7 @@
       <c r="I205" s="5"/>
       <c r="J205" s="11"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:10">
       <c r="B206" s="13" t="s">
         <v>539</v>
       </c>
@@ -8095,7 +7731,7 @@
       <c r="I206" s="5"/>
       <c r="J206" s="11"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:10">
       <c r="B207" s="13" t="s">
         <v>541</v>
       </c>
@@ -8108,7 +7744,7 @@
       <c r="I207" s="5"/>
       <c r="J207" s="11"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:10">
       <c r="B208" s="13" t="s">
         <v>543</v>
       </c>
@@ -8121,7 +7757,7 @@
       <c r="I208" s="5"/>
       <c r="J208" s="11"/>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:11">
       <c r="B209" s="13" t="s">
         <v>545</v>
       </c>
@@ -8129,7 +7765,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:11">
       <c r="B210" s="13" t="s">
         <v>547</v>
       </c>
@@ -8137,7 +7773,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:11">
       <c r="B211" s="13" t="s">
         <v>549</v>
       </c>
@@ -8145,7 +7781,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:11">
       <c r="B212" s="13" t="s">
         <v>551</v>
       </c>
@@ -8153,7 +7789,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:11">
       <c r="B213" s="13" t="s">
         <v>553</v>
       </c>
@@ -8166,7 +7802,7 @@
       <c r="I213" s="5"/>
       <c r="J213" s="11"/>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:11">
       <c r="B214" s="13" t="s">
         <v>555</v>
       </c>
@@ -8179,7 +7815,7 @@
       <c r="I214" s="5"/>
       <c r="J214" s="11"/>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:11">
       <c r="B215" s="13" t="s">
         <v>557</v>
       </c>
@@ -8192,7 +7828,7 @@
       <c r="I215" s="5"/>
       <c r="J215" s="11"/>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:11">
       <c r="B216" s="13" t="s">
         <v>559</v>
       </c>
@@ -8205,7 +7841,7 @@
       <c r="I216" s="5"/>
       <c r="J216" s="11"/>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:11">
       <c r="B217" s="13" t="s">
         <v>561</v>
       </c>
@@ -8218,7 +7854,7 @@
       <c r="I217" s="5"/>
       <c r="J217" s="11"/>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:11">
       <c r="B218" s="13" t="s">
         <v>563</v>
       </c>
@@ -8231,7 +7867,7 @@
       <c r="I218" s="5"/>
       <c r="J218" s="11"/>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:11">
       <c r="B219" s="13" t="s">
         <v>565</v>
       </c>
@@ -8244,7 +7880,7 @@
       <c r="I219" s="5"/>
       <c r="J219" s="11"/>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:11">
       <c r="B220" s="13" t="s">
         <v>567</v>
       </c>
@@ -8257,8 +7893,8 @@
       <c r="I220" s="5"/>
       <c r="J220" s="11"/>
     </row>
-    <row r="221" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:11" s="20" customFormat="1"/>
+    <row r="222" spans="2:11">
       <c r="B222" s="13" t="s">
         <v>569</v>
       </c>
@@ -8282,7 +7918,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:11">
       <c r="B223" s="13" t="s">
         <v>574</v>
       </c>
@@ -8290,7 +7926,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:11">
       <c r="B224" s="13" t="s">
         <v>576</v>
       </c>
@@ -8298,7 +7934,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:11">
       <c r="B225" s="13" t="s">
         <v>578</v>
       </c>
@@ -8306,8 +7942,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="226" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:11" s="20" customFormat="1"/>
+    <row r="227" spans="2:11">
       <c r="B227" s="13" t="s">
         <v>580</v>
       </c>
@@ -8331,7 +7967,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:11">
       <c r="B228" s="13" t="s">
         <v>585</v>
       </c>
@@ -8339,7 +7975,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:11">
       <c r="B229" s="13" t="s">
         <v>587</v>
       </c>
@@ -8347,7 +7983,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:11">
       <c r="B230" s="13" t="s">
         <v>589</v>
       </c>
@@ -8355,7 +7991,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:11">
       <c r="B231" s="13" t="s">
         <v>591</v>
       </c>
@@ -8363,7 +7999,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:11">
       <c r="B232" s="13" t="s">
         <v>593</v>
       </c>
@@ -8371,8 +8007,8 @@
         <v>594</v>
       </c>
     </row>
-    <row r="233" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:11" s="20" customFormat="1"/>
+    <row r="234" spans="2:11">
       <c r="B234" s="13" t="s">
         <v>595</v>
       </c>
@@ -8396,7 +8032,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:11">
       <c r="B235" s="13" t="s">
         <v>600</v>
       </c>
@@ -8404,7 +8040,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:11">
       <c r="B236" s="13" t="s">
         <v>602</v>
       </c>
@@ -8412,7 +8048,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:11">
       <c r="B237" s="13" t="s">
         <v>604</v>
       </c>
@@ -8420,7 +8056,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:11">
       <c r="B238" s="13" t="s">
         <v>606</v>
       </c>
@@ -8428,13 +8064,13 @@
         <v>605</v>
       </c>
     </row>
-    <row r="239" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="240" spans="2:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:11" s="20" customFormat="1"/>
+    <row r="240" spans="2:11" s="27" customFormat="1">
       <c r="B240" s="27" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:11">
       <c r="B241" s="13" t="s">
         <v>608</v>
       </c>
@@ -8458,7 +8094,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:11">
       <c r="B242" s="13" t="s">
         <v>613</v>
       </c>
@@ -8466,7 +8102,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:11">
       <c r="B243" s="13" t="s">
         <v>615</v>
       </c>
@@ -8474,7 +8110,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:11">
       <c r="B244" s="13" t="s">
         <v>617</v>
       </c>
@@ -8482,12 +8118,12 @@
         <v>618</v>
       </c>
     </row>
-    <row r="245" spans="2:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:11" s="27" customFormat="1">
       <c r="B245" s="27" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:11">
       <c r="B246" s="13" t="s">
         <v>620</v>
       </c>
@@ -8495,8 +8131,8 @@
         <v>621</v>
       </c>
     </row>
-    <row r="247" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="2:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:11" s="20" customFormat="1"/>
+    <row r="248" spans="2:11" s="27" customFormat="1">
       <c r="B248" s="27" t="s">
         <v>622</v>
       </c>
@@ -8516,7 +8152,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:11">
       <c r="B249" s="13" t="s">
         <v>626</v>
       </c>
@@ -8524,7 +8160,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:11">
       <c r="B250" s="13" t="s">
         <v>628</v>
       </c>
@@ -8532,7 +8168,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:11">
       <c r="B251" s="13" t="s">
         <v>630</v>
       </c>
@@ -8540,7 +8176,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:11">
       <c r="B252" s="13" t="s">
         <v>632</v>
       </c>
@@ -8548,7 +8184,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:11">
       <c r="B253" s="13" t="s">
         <v>634</v>
       </c>
@@ -8556,7 +8192,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:11">
       <c r="B254" s="13" t="s">
         <v>635</v>
       </c>
@@ -8564,7 +8200,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:11">
       <c r="B255" s="13" t="s">
         <v>637</v>
       </c>
@@ -8572,7 +8208,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:11">
       <c r="B256" s="13" t="s">
         <v>639</v>
       </c>
@@ -8580,7 +8216,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5">
       <c r="B257" s="13" t="s">
         <v>641</v>
       </c>
@@ -8588,7 +8224,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5">
       <c r="B258" s="13" t="s">
         <v>643</v>
       </c>
@@ -8596,7 +8232,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5">
       <c r="B259" s="13" t="s">
         <v>645</v>
       </c>
@@ -8604,7 +8240,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5">
       <c r="B260" s="13" t="s">
         <v>647</v>
       </c>
@@ -8612,12 +8248,12 @@
         <v>648</v>
       </c>
     </row>
-    <row r="261" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" s="27" customFormat="1">
       <c r="B261" s="27" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5">
       <c r="B262" s="13" t="s">
         <v>650</v>
       </c>
@@ -8625,7 +8261,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5">
       <c r="A263" s="31"/>
       <c r="B263" s="13" t="s">
         <v>652</v>
@@ -8634,7 +8270,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5">
       <c r="B264" s="13" t="s">
         <v>654</v>
       </c>
@@ -8642,7 +8278,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5">
       <c r="B265" s="13" t="s">
         <v>656</v>
       </c>
@@ -8650,7 +8286,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5">
       <c r="B266" s="13" t="s">
         <v>658</v>
       </c>
@@ -8658,7 +8294,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5">
       <c r="B267" s="13" t="s">
         <v>660</v>
       </c>
@@ -8667,7 +8303,7 @@
       </c>
       <c r="E267" s="31"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5">
       <c r="B268" s="13" t="s">
         <v>662</v>
       </c>
@@ -8675,7 +8311,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5">
       <c r="B269" s="13" t="s">
         <v>664</v>
       </c>
@@ -8683,7 +8319,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5">
       <c r="B270" s="13" t="s">
         <v>666</v>
       </c>
@@ -8691,7 +8327,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5">
       <c r="B271" s="13" t="s">
         <v>668</v>
       </c>
@@ -8699,7 +8335,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5">
       <c r="B272" s="13" t="s">
         <v>670</v>
       </c>
@@ -8707,7 +8343,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:4">
       <c r="B273" s="13" t="s">
         <v>672</v>
       </c>
@@ -8715,7 +8351,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:4">
       <c r="B274" s="13" t="s">
         <v>674</v>
       </c>
@@ -8723,7 +8359,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:4">
       <c r="B275" s="13" t="s">
         <v>676</v>
       </c>
@@ -8731,7 +8367,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:4">
       <c r="B276" s="13" t="s">
         <v>678</v>
       </c>
@@ -8739,7 +8375,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:4">
       <c r="B277" s="13" t="s">
         <v>680</v>
       </c>
@@ -8747,7 +8383,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:4">
       <c r="B278" s="13" t="s">
         <v>682</v>
       </c>
@@ -8755,7 +8391,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:4">
       <c r="B279" s="13" t="s">
         <v>684</v>
       </c>
@@ -8763,7 +8399,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:4">
       <c r="B280" s="13" t="s">
         <v>685</v>
       </c>
@@ -8771,7 +8407,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:4">
       <c r="B281" s="13" t="s">
         <v>687</v>
       </c>
@@ -8779,7 +8415,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:4">
       <c r="B282" s="13" t="s">
         <v>689</v>
       </c>
@@ -9038,4 +8674,365 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C21">
+      <formula1>$C$3:$C19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D21">
+      <formula1>"基本信息,健康体检,儿童保健,妇女保健,疾病控制,疾病管理,医疗服务,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>